--- a/AAPL.xlsx
+++ b/AAPL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BF1A8F-2C89-4E14-8058-EE1A2165CC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A6BC30-9CDE-4F88-8CFD-797354156CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B6F3B1E3-62A6-41E2-953C-3DEF4B9ACA9E}"/>
   </bookViews>
@@ -196,28 +196,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE20" authorId="4" shapeId="0" xr:uid="{2CF6FB78-94CA-4E94-81D0-20A7DB1B3EC9}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color theme="1"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Same y/y performance as Q223</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="144">
   <si>
     <t>Price</t>
   </si>
@@ -675,6 +659,18 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">option to share the location of your luggage , with major airlines </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1 viewers adoption AAPL tv </t>
+  </si>
+  <si>
+    <t xml:space="preserve">strong dollar affection 2% y/y </t>
+  </si>
+  <si>
+    <t>46-47 gross</t>
   </si>
 </sst>
 </file>
@@ -752,18 +748,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -780,7 +770,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -810,15 +800,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -847,14 +828,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>603005</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>21981</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -871,8 +852,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="18430875" y="0"/>
-          <a:ext cx="28575" cy="13744575"/>
+          <a:off x="19022890" y="0"/>
+          <a:ext cx="27110" cy="13683029"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1271,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDB42F4-D3F6-42E5-97CD-AE20E0C5C6C6}">
-  <dimension ref="N2:P7"/>
+  <dimension ref="B2:P14"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1282,7 +1263,7 @@
     <col min="15" max="15" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="N2" t="s">
         <v>0</v>
       </c>
@@ -1290,7 +1271,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="N3" t="s">
         <v>1</v>
       </c>
@@ -1301,7 +1282,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="N4" t="s">
         <v>2</v>
       </c>
@@ -1310,7 +1291,7 @@
         <v>3620902.3249999997</v>
       </c>
     </row>
-    <row r="5" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="N5" t="s">
         <v>3</v>
       </c>
@@ -1322,7 +1303,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="N6" t="s">
         <v>4</v>
       </c>
@@ -1334,13 +1315,38 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="N7" t="s">
         <v>5</v>
       </c>
       <c r="O7" s="2">
         <f>+O4-O5+O6</f>
         <v>3560914.3249999997</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1354,10 +1360,10 @@
   <dimension ref="A1:DX86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BQ10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="S12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CE38" sqref="CE38"/>
+      <selection pane="bottomRight" activeCell="AG38" sqref="AG38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1555,7 +1561,7 @@
       <c r="AD3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AE3" s="19" t="s">
+      <c r="AE3" s="1" t="s">
         <v>130</v>
       </c>
       <c r="AF3" s="1" t="s">
@@ -1727,7 +1733,6 @@
       <c r="X4" s="7">
         <v>37784</v>
       </c>
-      <c r="AE4" s="19"/>
     </row>
     <row r="5" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="17" t="s">
@@ -1742,7 +1747,6 @@
       <c r="X5" s="7">
         <v>23945</v>
       </c>
-      <c r="AE5" s="19"/>
     </row>
     <row r="6" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="17" t="s">
@@ -1757,7 +1761,6 @@
       <c r="X6" s="7">
         <v>17812</v>
       </c>
-      <c r="AE6" s="19"/>
     </row>
     <row r="7" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
@@ -1772,7 +1775,6 @@
       <c r="X7" s="7">
         <v>7176</v>
       </c>
-      <c r="AE7" s="19"/>
     </row>
     <row r="8" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17" t="s">
@@ -1787,11 +1789,8 @@
       <c r="X8" s="7">
         <v>8119</v>
       </c>
-      <c r="AE8" s="19"/>
     </row>
-    <row r="9" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="AE9" s="19"/>
-    </row>
+    <row r="9" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>37</v>
@@ -1871,9 +1870,8 @@
         <f>+BL10-AC10-AB10-AA10</f>
         <v>46222</v>
       </c>
-      <c r="AE10" s="20">
-        <f>+AA10*1.07</f>
-        <v>74581.14</v>
+      <c r="AE10" s="2">
+        <v>69138</v>
       </c>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
@@ -2081,7 +2079,6 @@
         <f>+U10/U12*1000</f>
         <v>43260.117693779554</v>
       </c>
-      <c r="AE11" s="21"/>
       <c r="AW11" s="7">
         <v>20731</v>
       </c>
@@ -2267,7 +2264,6 @@
         <v>940.01131221719459</v>
       </c>
       <c r="V12" s="14"/>
-      <c r="AE12" s="21"/>
       <c r="AW12" s="7">
         <f>+AW10*1000/AW11</f>
         <v>628.67203704596977</v>
@@ -2332,73 +2328,72 @@
         <v>1150.6728000000001</v>
       </c>
       <c r="BM12" s="7">
-        <f>+BL12*1.04</f>
+        <f t="shared" ref="BM12:CB12" si="5">+BL12*1.04</f>
         <v>1196.6997120000001</v>
       </c>
       <c r="BN12" s="7">
-        <f>+BM12*1.04</f>
+        <f t="shared" si="5"/>
         <v>1244.5677004800002</v>
       </c>
       <c r="BO12" s="7">
-        <f>+BN12*1.04</f>
+        <f t="shared" si="5"/>
         <v>1294.3504084992003</v>
       </c>
       <c r="BP12" s="7">
-        <f>+BO12*1.04</f>
+        <f t="shared" si="5"/>
         <v>1346.1244248391683</v>
       </c>
       <c r="BQ12" s="7">
-        <f>+BP12*1.04</f>
+        <f t="shared" si="5"/>
         <v>1399.9694018327352</v>
       </c>
       <c r="BR12" s="7">
-        <f>+BQ12*1.04</f>
+        <f t="shared" si="5"/>
         <v>1455.9681779060447</v>
       </c>
       <c r="BS12" s="7">
-        <f>+BR12*1.04</f>
+        <f t="shared" si="5"/>
         <v>1514.2069050222865</v>
       </c>
       <c r="BT12" s="7">
-        <f>+BS12*1.04</f>
+        <f t="shared" si="5"/>
         <v>1574.7751812231779</v>
       </c>
       <c r="BU12" s="7">
-        <f>+BT12*1.04</f>
+        <f t="shared" si="5"/>
         <v>1637.7661884721051</v>
       </c>
       <c r="BV12" s="7">
-        <f>+BU12*1.04</f>
+        <f t="shared" si="5"/>
         <v>1703.2768360109894</v>
       </c>
       <c r="BW12" s="7">
-        <f>+BV12*1.04</f>
+        <f t="shared" si="5"/>
         <v>1771.4079094514291</v>
       </c>
       <c r="BX12" s="7">
-        <f>+BW12*1.04</f>
+        <f t="shared" si="5"/>
         <v>1842.2642258294863</v>
       </c>
       <c r="BY12" s="7">
-        <f>+BX12*1.04</f>
+        <f t="shared" si="5"/>
         <v>1915.9547948626659</v>
       </c>
       <c r="BZ12" s="7">
-        <f>+BY12*1.04</f>
+        <f t="shared" si="5"/>
         <v>1992.5929866571726</v>
       </c>
       <c r="CA12" s="7">
-        <f>+BZ12*1.04</f>
+        <f t="shared" si="5"/>
         <v>2072.2967061234594</v>
       </c>
       <c r="CB12" s="7">
-        <f>+CA12*1.04</f>
+        <f t="shared" si="5"/>
         <v>2155.1885743683979</v>
       </c>
     </row>
     <row r="13" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
-      <c r="AE13" s="21"/>
     </row>
     <row r="14" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
@@ -2479,9 +2474,8 @@
         <f>+BL14-AC14-AB14-AA14</f>
         <v>7744</v>
       </c>
-      <c r="AE14" s="20">
-        <f>+AA14*1.05</f>
-        <v>8169</v>
+      <c r="AE14" s="2">
+        <v>8987</v>
       </c>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
@@ -2548,11 +2542,11 @@
         <v>25740</v>
       </c>
       <c r="BH14" s="7">
-        <f t="shared" ref="BH14:BH15" si="5">SUM(K14:N14)</f>
+        <f t="shared" ref="BH14:BH15" si="6">SUM(K14:N14)</f>
         <v>28622</v>
       </c>
       <c r="BI14" s="7">
-        <f t="shared" ref="BI14:BI15" si="6">SUM(O14:R14)</f>
+        <f t="shared" ref="BI14:BI15" si="7">SUM(O14:R14)</f>
         <v>35190</v>
       </c>
       <c r="BJ14" s="7">
@@ -2574,59 +2568,59 @@
         <v>33210.278399999996</v>
       </c>
       <c r="BO14" s="7">
-        <f t="shared" ref="BO14:CB14" si="7">+BN14*1.065</f>
+        <f t="shared" ref="BO14:CB14" si="8">+BN14*1.065</f>
         <v>35368.946495999997</v>
       </c>
       <c r="BP14" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>37667.928018239996</v>
       </c>
       <c r="BQ14" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>40116.343339425592</v>
       </c>
       <c r="BR14" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42723.905656488256</v>
       </c>
       <c r="BS14" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>45500.959524159989</v>
       </c>
       <c r="BT14" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>48458.521893230383</v>
       </c>
       <c r="BU14" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>51608.325816290358</v>
       </c>
       <c r="BV14" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>54962.866994349228</v>
       </c>
       <c r="BW14" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>58535.453348981922</v>
       </c>
       <c r="BX14" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>62340.257816665748</v>
       </c>
       <c r="BY14" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>66392.374574749017</v>
       </c>
       <c r="BZ14" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>70707.878922107702</v>
       </c>
       <c r="CA14" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>75303.891052044695</v>
       </c>
       <c r="CB14" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>80198.643970427598</v>
       </c>
     </row>
@@ -2709,9 +2703,8 @@
         <f>+BL15-AC15-AB15-AA15</f>
         <v>6950</v>
       </c>
-      <c r="AE15" s="20">
-        <f>+AA15*1.05</f>
-        <v>7374.1500000000005</v>
+      <c r="AE15" s="2">
+        <v>8088</v>
       </c>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
@@ -2777,11 +2770,11 @@
         <v>21280</v>
       </c>
       <c r="BH15" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23724</v>
       </c>
       <c r="BI15" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>31862</v>
       </c>
       <c r="BJ15" s="7">
@@ -2803,59 +2796,59 @@
         <v>29566.274400000002</v>
       </c>
       <c r="BO15" s="7">
-        <f t="shared" ref="BO15:CB15" si="8">+BN15*1.065</f>
+        <f t="shared" ref="BO15:CB15" si="9">+BN15*1.065</f>
         <v>31488.082236000002</v>
       </c>
       <c r="BP15" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>33534.807581339999</v>
       </c>
       <c r="BQ15" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>35714.570074127099</v>
       </c>
       <c r="BR15" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>38036.017128945357</v>
       </c>
       <c r="BS15" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>40508.358242326802</v>
       </c>
       <c r="BT15" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43141.401528078044</v>
       </c>
       <c r="BU15" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45945.592627403115</v>
       </c>
       <c r="BV15" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>48932.056148184318</v>
       </c>
       <c r="BW15" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>52112.639797816293</v>
       </c>
       <c r="BX15" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>55499.961384674352</v>
       </c>
       <c r="BY15" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>59107.458874678181</v>
       </c>
       <c r="BZ15" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>62949.443701532262</v>
       </c>
       <c r="CA15" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>67041.157542131856</v>
       </c>
       <c r="CB15" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>71398.832782370417</v>
       </c>
     </row>
@@ -2938,9 +2931,8 @@
         <f>+BL16-AC16-AB16-AA16</f>
         <v>9042</v>
       </c>
-      <c r="AE16" s="20">
-        <f>+AA16*1.05</f>
-        <v>12550.65</v>
+      <c r="AE16" s="2">
+        <v>11747</v>
       </c>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
@@ -3019,11 +3011,11 @@
         <v>24482</v>
       </c>
       <c r="BH16" s="7">
-        <f t="shared" ref="BH16" si="9">SUM(K16:N16)</f>
+        <f t="shared" ref="BH16" si="10">SUM(K16:N16)</f>
         <v>30620</v>
       </c>
       <c r="BI16" s="7">
-        <f t="shared" ref="BI16" si="10">SUM(O16:R16)</f>
+        <f t="shared" ref="BI16" si="11">SUM(O16:R16)</f>
         <v>38367</v>
       </c>
       <c r="BJ16" s="7">
@@ -3045,65 +3037,64 @@
         <v>40986.738000000005</v>
       </c>
       <c r="BO16" s="7">
-        <f t="shared" ref="BO16:CB16" si="11">+BN16*1.065</f>
+        <f t="shared" ref="BO16:CB16" si="12">+BN16*1.065</f>
         <v>43650.875970000001</v>
       </c>
       <c r="BP16" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>46488.182908049996</v>
       </c>
       <c r="BQ16" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>49509.914797073245</v>
       </c>
       <c r="BR16" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>52728.059258883004</v>
       </c>
       <c r="BS16" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>56155.383110710398</v>
       </c>
       <c r="BT16" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>59805.483012906574</v>
       </c>
       <c r="BU16" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>63692.839408745502</v>
       </c>
       <c r="BV16" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>67832.873970313958</v>
       </c>
       <c r="BW16" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>72242.010778384356</v>
       </c>
       <c r="BX16" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>76937.74147897934</v>
       </c>
       <c r="BY16" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>81938.694675112987</v>
       </c>
       <c r="BZ16" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>87264.709828995328</v>
       </c>
       <c r="CA16" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>92936.915967880021</v>
       </c>
       <c r="CB16" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>98977.815505792212</v>
       </c>
     </row>
     <row r="17" spans="2:128" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
-      <c r="AE17" s="21"/>
     </row>
     <row r="18" spans="2:128" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
@@ -3126,35 +3117,35 @@
         <v>52919</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" ref="K18:R18" si="12">SUM(K14:K16)+K10</f>
+        <f t="shared" ref="K18:R18" si="13">SUM(K14:K16)+K10</f>
         <v>79104</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>44965</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>46529</v>
       </c>
       <c r="N18" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>50149</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>95678</v>
       </c>
       <c r="P18" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>72683</v>
       </c>
       <c r="Q18" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>63948</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>65083</v>
       </c>
       <c r="S18" s="2">
@@ -3201,96 +3192,95 @@
         <f>+BL18-AC18-AB18-AA18</f>
         <v>69958</v>
       </c>
-      <c r="AE18" s="20">
-        <f>+AE10+AE14+AE15+AE16</f>
-        <v>102674.93999999999</v>
+      <c r="AE18" s="2">
+        <v>97960</v>
       </c>
       <c r="AN18" s="2">
-        <f t="shared" ref="AN18:AW18" si="13">SUM(AN14:AN16)+AN10</f>
+        <f t="shared" ref="AN18:AW18" si="14">SUM(AN14:AN16)+AN10</f>
         <v>6885</v>
       </c>
       <c r="AO18" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4790</v>
       </c>
       <c r="AP18" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5208</v>
       </c>
       <c r="AQ18" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5527</v>
       </c>
       <c r="AR18" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7180</v>
       </c>
       <c r="AS18" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>11941</v>
       </c>
       <c r="AT18" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16151</v>
       </c>
       <c r="AU18" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>20002</v>
       </c>
       <c r="AV18" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31943</v>
       </c>
       <c r="AW18" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>36458</v>
       </c>
       <c r="AX18" s="2">
-        <f t="shared" ref="AX18:BI18" si="14">SUM(AX14:AX16)+AX10</f>
+        <f t="shared" ref="AX18:BI18" si="15">SUM(AX14:AX16)+AX10</f>
         <v>57704</v>
       </c>
       <c r="AY18" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>98876</v>
       </c>
       <c r="AZ18" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>143618</v>
       </c>
       <c r="BA18" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>154859</v>
       </c>
       <c r="BB18" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>164732</v>
       </c>
       <c r="BC18" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>213806</v>
       </c>
       <c r="BD18" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>191291</v>
       </c>
       <c r="BE18" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>199254</v>
       </c>
       <c r="BF18" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>225847</v>
       </c>
       <c r="BG18" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>213883</v>
       </c>
       <c r="BH18" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>220747</v>
       </c>
       <c r="BI18" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>297392</v>
       </c>
       <c r="BJ18" s="2">
@@ -3305,67 +3295,67 @@
         <v>294866</v>
       </c>
       <c r="BM18" s="2">
-        <f>+BM10+BM14+BM15+BM16</f>
+        <f t="shared" ref="BM18:BS18" si="16">+BM10+BM14+BM15+BM16</f>
         <v>304648.81000000006</v>
       </c>
       <c r="BN18" s="2">
-        <f>+BN10+BN14+BN15+BN16</f>
+        <f t="shared" si="16"/>
         <v>317198.33550000004</v>
       </c>
       <c r="BO18" s="2">
-        <f>+BO10+BO14+BO15+BO16</f>
+        <f t="shared" si="16"/>
         <v>330346.00074300001</v>
       </c>
       <c r="BP18" s="2">
-        <f>+BP10+BP14+BP15+BP16</f>
+        <f t="shared" si="16"/>
         <v>344124.15742986009</v>
       </c>
       <c r="BQ18" s="2">
-        <f>+BQ10+BQ14+BQ15+BQ16</f>
+        <f t="shared" si="16"/>
         <v>358567.06430052291</v>
       </c>
       <c r="BR18" s="2">
-        <f>+BR10+BR14+BR15+BR16</f>
+        <f t="shared" si="16"/>
         <v>373711.0052169105</v>
       </c>
       <c r="BS18" s="2">
-        <f>+BS10+BS14+BS15+BS16</f>
+        <f t="shared" si="16"/>
         <v>389594.41474496893</v>
       </c>
       <c r="BT18" s="2">
-        <f t="shared" ref="BN18:CB18" si="15">+BT10+BT14+BT15+BT16</f>
+        <f t="shared" ref="BT18:CB18" si="17">+BT10+BT14+BT15+BT16</f>
         <v>406258.01171801978</v>
       </c>
       <c r="BU18" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>423744.94129475794</v>
       </c>
       <c r="BV18" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>442100.92605843605</v>
       </c>
       <c r="BW18" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>461374.42673913873</v>
       </c>
       <c r="BX18" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>467692.59703799651</v>
       </c>
       <c r="BY18" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>474894.87175506365</v>
       </c>
       <c r="BZ18" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>483029.2492105483</v>
       </c>
       <c r="CA18" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>492147.0369848113</v>
       </c>
       <c r="CB18" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>502303.06323288981</v>
       </c>
     </row>
@@ -3448,9 +3438,8 @@
         <f>+BL19-AC19-AB19-AA19</f>
         <v>24972</v>
       </c>
-      <c r="AE19" s="20">
-        <f>+AA19*1.07</f>
-        <v>24735.190000000002</v>
+      <c r="AE19" s="2">
+        <v>26340</v>
       </c>
       <c r="AN19" s="2">
         <v>1098</v>
@@ -3527,7 +3516,7 @@
         <v>53768</v>
       </c>
       <c r="BI19" s="7">
-        <f t="shared" ref="BI19" si="16">SUM(O19:R19)</f>
+        <f t="shared" ref="BI19" si="18">SUM(O19:R19)</f>
         <v>68425</v>
       </c>
       <c r="BJ19" s="7">
@@ -3545,63 +3534,63 @@
         <v>98092.38</v>
       </c>
       <c r="BN19" s="7">
-        <f t="shared" ref="BN19:CB19" si="17">+BM19*1.02</f>
+        <f t="shared" ref="BN19:CB19" si="19">+BM19*1.02</f>
         <v>100054.22760000001</v>
       </c>
       <c r="BO19" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>102055.31215200001</v>
       </c>
       <c r="BP19" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>104096.41839504002</v>
       </c>
       <c r="BQ19" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>106178.34676294083</v>
       </c>
       <c r="BR19" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>108301.91369819964</v>
       </c>
       <c r="BS19" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>110467.95197216363</v>
       </c>
       <c r="BT19" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>112677.3110116069</v>
       </c>
       <c r="BU19" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>114930.85723183904</v>
       </c>
       <c r="BV19" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>117229.47437647582</v>
       </c>
       <c r="BW19" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>119574.06386400534</v>
       </c>
       <c r="BX19" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>121965.54514128545</v>
       </c>
       <c r="BY19" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>124404.85604411116</v>
       </c>
       <c r="BZ19" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>126892.95316499339</v>
       </c>
       <c r="CA19" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>129430.81222829326</v>
       </c>
       <c r="CB19" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>132019.42847285912</v>
       </c>
     </row>
@@ -3610,35 +3599,35 @@
         <v>7</v>
       </c>
       <c r="C20" s="8">
-        <f t="shared" ref="C20:F20" si="18">+C18+C19</f>
+        <f t="shared" ref="C20:F20" si="20">+C18+C19</f>
         <v>88293</v>
       </c>
       <c r="D20" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>61137</v>
       </c>
       <c r="E20" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>53265</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>62900</v>
       </c>
       <c r="K20" s="8">
-        <f t="shared" ref="K20:N20" si="19">+K18+K19</f>
+        <f t="shared" ref="K20:N20" si="21">+K18+K19</f>
         <v>91819</v>
       </c>
       <c r="L20" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>58313</v>
       </c>
       <c r="M20" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>59685</v>
       </c>
       <c r="N20" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>64698</v>
       </c>
       <c r="O20" s="8">
@@ -3654,11 +3643,11 @@
         <v>81434</v>
       </c>
       <c r="R20" s="8">
-        <f t="shared" ref="R20" si="20">+R18+R19</f>
+        <f t="shared" ref="R20" si="22">+R18+R19</f>
         <v>83360</v>
       </c>
       <c r="S20" s="8">
-        <f t="shared" ref="S20" si="21">+S18+S19</f>
+        <f t="shared" ref="S20" si="23">+S18+S19</f>
         <v>123945</v>
       </c>
       <c r="T20" s="8">
@@ -3666,7 +3655,7 @@
         <v>97278</v>
       </c>
       <c r="U20" s="8">
-        <f t="shared" ref="U20" si="22">+U18+U19</f>
+        <f t="shared" ref="U20" si="24">+U18+U19</f>
         <v>82959</v>
       </c>
       <c r="V20" s="8">
@@ -3678,36 +3667,36 @@
         <v>117154</v>
       </c>
       <c r="X20" s="8">
-        <f t="shared" ref="X20:AE20" si="23">+X19+X18</f>
+        <f t="shared" ref="X20:AD20" si="25">+X19+X18</f>
         <v>94836</v>
       </c>
       <c r="Y20" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>81797</v>
       </c>
       <c r="Z20" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>89498</v>
       </c>
       <c r="AA20" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>119575</v>
       </c>
       <c r="AB20" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>90753</v>
       </c>
       <c r="AC20" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>85777</v>
       </c>
       <c r="AD20" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>94930</v>
       </c>
-      <c r="AE20" s="22">
-        <f t="shared" si="23"/>
-        <v>127410.12999999999</v>
+      <c r="AE20" s="8">
+        <f>+AE19+AE18</f>
+        <v>124300</v>
       </c>
       <c r="AL20" s="8">
         <v>5941</v>
@@ -3716,83 +3705,83 @@
         <v>6134</v>
       </c>
       <c r="AN20" s="8">
-        <f t="shared" ref="AN20:BF20" si="24">+AN18+AN19</f>
+        <f t="shared" ref="AN20:BF20" si="26">+AN18+AN19</f>
         <v>7983</v>
       </c>
       <c r="AO20" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5363</v>
       </c>
       <c r="AP20" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5742</v>
       </c>
       <c r="AQ20" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>6207</v>
       </c>
       <c r="AR20" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>8279</v>
       </c>
       <c r="AS20" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>13931</v>
       </c>
       <c r="AT20" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>19315</v>
       </c>
       <c r="AU20" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>24006</v>
       </c>
       <c r="AV20" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>37491</v>
       </c>
       <c r="AW20" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>42905</v>
       </c>
       <c r="AX20" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>65225</v>
       </c>
       <c r="AY20" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>108249</v>
       </c>
       <c r="AZ20" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>156508</v>
       </c>
       <c r="BA20" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>170910</v>
       </c>
       <c r="BB20" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>182795</v>
       </c>
       <c r="BC20" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>233715</v>
       </c>
       <c r="BD20" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>215639</v>
       </c>
       <c r="BE20" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>229234</v>
       </c>
       <c r="BF20" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>265595</v>
       </c>
       <c r="BG20" s="8">
-        <f t="shared" ref="BG20" si="25">+BG18+BG19</f>
+        <f t="shared" ref="BG20" si="27">+BG18+BG19</f>
         <v>260174</v>
       </c>
       <c r="BH20" s="8">
@@ -3816,67 +3805,67 @@
         <v>391035</v>
       </c>
       <c r="BM20" s="8">
-        <f t="shared" ref="BM20:CB20" si="26">+BM18+BM19</f>
+        <f t="shared" ref="BM20:CB20" si="28">+BM18+BM19</f>
         <v>402741.19000000006</v>
       </c>
       <c r="BN20" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>417252.56310000003</v>
       </c>
       <c r="BO20" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>432401.31289500004</v>
       </c>
       <c r="BP20" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>448220.57582490012</v>
       </c>
       <c r="BQ20" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>464745.41106346372</v>
       </c>
       <c r="BR20" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>482012.91891511017</v>
       </c>
       <c r="BS20" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>500062.36671713257</v>
       </c>
       <c r="BT20" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>518935.32272962667</v>
       </c>
       <c r="BU20" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>538675.79852659698</v>
       </c>
       <c r="BV20" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>559330.40043491183</v>
       </c>
       <c r="BW20" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>580948.49060314405</v>
       </c>
       <c r="BX20" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>589658.14217928192</v>
       </c>
       <c r="BY20" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>599299.72779917484</v>
       </c>
       <c r="BZ20" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>609922.20237554167</v>
       </c>
       <c r="CA20" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>621577.84921310458</v>
       </c>
       <c r="CB20" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>634322.49170574895</v>
       </c>
     </row>
@@ -3946,9 +3935,8 @@
         <f>+BL21-AC21-AB21-AA21</f>
         <v>44556</v>
       </c>
-      <c r="AE21" s="20">
-        <f>+AE18*0.63</f>
-        <v>64685.212199999994</v>
+      <c r="AE21" s="2">
+        <v>59447</v>
       </c>
       <c r="BF21" s="7">
         <v>148164</v>
@@ -3961,11 +3949,11 @@
         <v>151286</v>
       </c>
       <c r="BI21" s="7">
-        <f t="shared" ref="BI21:BI22" si="27">SUM(O21:R21)</f>
+        <f t="shared" ref="BI21:BI22" si="29">SUM(O21:R21)</f>
         <v>192266</v>
       </c>
       <c r="BJ21" s="7">
-        <f t="shared" ref="BJ21:BJ22" si="28">SUM(S21:V21)</f>
+        <f t="shared" ref="BJ21:BJ22" si="30">SUM(S21:V21)</f>
         <v>201471</v>
       </c>
       <c r="BK21" s="2">
@@ -3979,63 +3967,63 @@
         <v>194975.23840000003</v>
       </c>
       <c r="BN21" s="2">
-        <f t="shared" ref="BN21:CB21" si="29">+BN18*0.64</f>
+        <f t="shared" ref="BN21:CB21" si="31">+BN18*0.64</f>
         <v>203006.93472000002</v>
       </c>
       <c r="BO21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>211421.44047552001</v>
       </c>
       <c r="BP21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>220239.46075511046</v>
       </c>
       <c r="BQ21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>229482.92115233466</v>
       </c>
       <c r="BR21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>239175.04333882272</v>
       </c>
       <c r="BS21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>249340.42543678012</v>
       </c>
       <c r="BT21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>260005.12749953268</v>
       </c>
       <c r="BU21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>271196.7624286451</v>
       </c>
       <c r="BV21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>282944.59267739905</v>
       </c>
       <c r="BW21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>295279.6331130488</v>
       </c>
       <c r="BX21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>299323.26210431778</v>
       </c>
       <c r="BY21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>303932.71792324074</v>
       </c>
       <c r="BZ21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>309138.7194947509</v>
       </c>
       <c r="CA21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>314974.10367027926</v>
       </c>
       <c r="CB21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>321473.96046904946</v>
       </c>
     </row>
@@ -4105,9 +4093,8 @@
         <f>+BL22-AC22-AB22-AA22</f>
         <v>6485</v>
       </c>
-      <c r="AE22" s="20">
-        <f>+AE19*0.27</f>
-        <v>6678.5013000000008</v>
+      <c r="AE22" s="2">
+        <v>6578</v>
       </c>
       <c r="BF22" s="7">
         <v>15592</v>
@@ -4120,11 +4107,11 @@
         <v>18273</v>
       </c>
       <c r="BI22" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>20715</v>
       </c>
       <c r="BJ22" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>22075</v>
       </c>
       <c r="BK22" s="2">
@@ -4138,63 +4125,63 @@
         <v>28446.790199999999</v>
       </c>
       <c r="BN22" s="2">
-        <f t="shared" ref="BN22:CB22" si="30">+BN19*0.29</f>
+        <f t="shared" ref="BN22:CB22" si="32">+BN19*0.29</f>
         <v>29015.726004</v>
       </c>
       <c r="BO22" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>29596.040524080003</v>
       </c>
       <c r="BP22" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>30187.961334561602</v>
       </c>
       <c r="BQ22" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>30791.720561252838</v>
       </c>
       <c r="BR22" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>31407.554972477894</v>
       </c>
       <c r="BS22" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>32035.706071927452</v>
       </c>
       <c r="BT22" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>32676.420193366001</v>
       </c>
       <c r="BU22" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>33329.94859723332</v>
       </c>
       <c r="BV22" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>33996.547569177987</v>
       </c>
       <c r="BW22" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>34676.478520561548</v>
       </c>
       <c r="BX22" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>35370.008090972777</v>
       </c>
       <c r="BY22" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>36077.408252792236</v>
       </c>
       <c r="BZ22" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>36798.95641784808</v>
       </c>
       <c r="CA22" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>37534.935546205044</v>
       </c>
       <c r="CB22" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>38285.634257129139</v>
       </c>
     </row>
@@ -4216,19 +4203,19 @@
         <v>38816</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" ref="K23:N23" si="31">+K21+K22</f>
+        <f t="shared" ref="K23:N23" si="33">+K21+K22</f>
         <v>56602</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>35943</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>37005</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>40009</v>
       </c>
       <c r="O23" s="2">
@@ -4244,11 +4231,11 @@
         <v>46179</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" ref="R23" si="32">+R21+R22</f>
+        <f t="shared" ref="R23" si="34">+R21+R22</f>
         <v>48186</v>
       </c>
       <c r="S23" s="2">
-        <f t="shared" ref="S23" si="33">+S21+S22</f>
+        <f t="shared" ref="S23" si="35">+S21+S22</f>
         <v>69702</v>
       </c>
       <c r="T23" s="2">
@@ -4256,48 +4243,48 @@
         <v>54719</v>
       </c>
       <c r="U23" s="2">
-        <f t="shared" ref="U23" si="34">+U21+U22</f>
+        <f t="shared" ref="U23" si="36">+U21+U22</f>
         <v>47074</v>
       </c>
       <c r="V23" s="2">
-        <f t="shared" ref="V23" si="35">+V21+V22</f>
+        <f t="shared" ref="V23" si="37">+V21+V22</f>
         <v>52051</v>
       </c>
       <c r="W23" s="2">
-        <f t="shared" ref="W23:AE23" si="36">+W21+W22</f>
+        <f t="shared" ref="W23:AD23" si="38">+W21+W22</f>
         <v>66822</v>
       </c>
       <c r="X23" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>52860</v>
       </c>
       <c r="Y23" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>45384</v>
       </c>
       <c r="Z23" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>49071</v>
       </c>
       <c r="AA23" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>64720</v>
       </c>
       <c r="AB23" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>48482</v>
       </c>
       <c r="AC23" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>46099</v>
       </c>
       <c r="AD23" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>51041</v>
       </c>
-      <c r="AE23" s="20">
-        <f t="shared" si="36"/>
-        <v>71363.713499999998</v>
+      <c r="AE23" s="2">
+        <f t="shared" ref="AE23" si="39">+AE21+AE22</f>
+        <v>66025</v>
       </c>
       <c r="AN23" s="2">
         <v>5817</v>
@@ -4354,11 +4341,11 @@
         <v>141048</v>
       </c>
       <c r="BF23" s="2">
-        <f t="shared" ref="BF23:BG23" si="37">+BF21+BF22</f>
+        <f t="shared" ref="BF23:BG23" si="40">+BF21+BF22</f>
         <v>163756</v>
       </c>
       <c r="BG23" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>161782</v>
       </c>
       <c r="BH23" s="2">
@@ -4382,67 +4369,67 @@
         <v>210342</v>
       </c>
       <c r="BM23" s="2">
-        <f t="shared" ref="BM23:CB23" si="38">+BM21+BM22</f>
+        <f t="shared" ref="BM23:CB23" si="41">+BM21+BM22</f>
         <v>223422.02860000002</v>
       </c>
       <c r="BN23" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>232022.66072400002</v>
       </c>
       <c r="BO23" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>241017.48099960003</v>
       </c>
       <c r="BP23" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>250427.42208967207</v>
       </c>
       <c r="BQ23" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>260274.64171358751</v>
       </c>
       <c r="BR23" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>270582.59831130062</v>
       </c>
       <c r="BS23" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>281376.13150870759</v>
       </c>
       <c r="BT23" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>292681.54769289866</v>
       </c>
       <c r="BU23" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>304526.71102587844</v>
       </c>
       <c r="BV23" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>316941.14024657704</v>
       </c>
       <c r="BW23" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>329956.11163361033</v>
       </c>
       <c r="BX23" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>334693.27019529056</v>
       </c>
       <c r="BY23" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>340010.12617603299</v>
       </c>
       <c r="BZ23" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>345937.67591259896</v>
       </c>
       <c r="CA23" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>352509.03921648429</v>
       </c>
       <c r="CB23" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>359759.59472617862</v>
       </c>
     </row>
@@ -4451,35 +4438,35 @@
         <v>22</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" ref="C24" si="39">+C20-C23</f>
+        <f t="shared" ref="C24" si="42">+C20-C23</f>
         <v>33912</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" ref="D24:F24" si="40">+D20-D23</f>
+        <f t="shared" ref="D24:F24" si="43">+D20-D23</f>
         <v>23422</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>20421</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>24084</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" ref="K24:N24" si="41">+K20-K23</f>
+        <f t="shared" ref="K24:N24" si="44">+K20-K23</f>
         <v>35217</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>22370</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>22680</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>24689</v>
       </c>
       <c r="O24" s="2">
@@ -4495,11 +4482,11 @@
         <v>35255</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" ref="R24" si="42">+R20-R23</f>
+        <f t="shared" ref="R24" si="45">+R20-R23</f>
         <v>35174</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" ref="S24" si="43">+S20-S23</f>
+        <f t="shared" ref="S24" si="46">+S20-S23</f>
         <v>54243</v>
       </c>
       <c r="T24" s="2">
@@ -4507,55 +4494,55 @@
         <v>42559</v>
       </c>
       <c r="U24" s="2">
-        <f t="shared" ref="U24" si="44">+U20-U23</f>
+        <f t="shared" ref="U24" si="47">+U20-U23</f>
         <v>35885</v>
       </c>
       <c r="V24" s="2">
-        <f t="shared" ref="V24" si="45">+V20-V23</f>
+        <f t="shared" ref="V24" si="48">+V20-V23</f>
         <v>38095</v>
       </c>
       <c r="W24" s="2">
-        <f t="shared" ref="W24:AE24" si="46">+W20-W23</f>
+        <f t="shared" ref="W24:AD24" si="49">+W20-W23</f>
         <v>50332</v>
       </c>
       <c r="X24" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>41976</v>
       </c>
       <c r="Y24" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>36413</v>
       </c>
       <c r="Z24" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>40427</v>
       </c>
       <c r="AA24" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>54855</v>
       </c>
       <c r="AB24" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>42271</v>
       </c>
       <c r="AC24" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>39678</v>
       </c>
       <c r="AD24" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>43889</v>
       </c>
-      <c r="AE24" s="20">
-        <f t="shared" si="46"/>
-        <v>56046.416499999992</v>
+      <c r="AE24" s="2">
+        <f t="shared" ref="AE24" si="50">+AE20-AE23</f>
+        <v>58275</v>
       </c>
       <c r="AN24" s="2">
-        <f t="shared" ref="AN24:AO24" si="47">+AN20-AN23</f>
+        <f t="shared" ref="AN24:AO24" si="51">+AN20-AN23</f>
         <v>2166</v>
       </c>
       <c r="AO24" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>1235</v>
       </c>
       <c r="AP24" s="2">
@@ -4563,71 +4550,71 @@
         <v>1603</v>
       </c>
       <c r="AQ24" s="2">
-        <f t="shared" ref="AQ24:AR24" si="48">+AQ20-AQ23</f>
+        <f t="shared" ref="AQ24:AR24" si="52">+AQ20-AQ23</f>
         <v>1708</v>
       </c>
       <c r="AR24" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>2259</v>
       </c>
       <c r="AS24" s="2">
-        <f t="shared" ref="AS24:AT24" si="49">+AS20-AS23</f>
+        <f t="shared" ref="AS24:AT24" si="53">+AS20-AS23</f>
         <v>4043</v>
       </c>
       <c r="AT24" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>5598</v>
       </c>
       <c r="AU24" s="2">
-        <f t="shared" ref="AU24:AV24" si="50">+AU20-AU23</f>
+        <f t="shared" ref="AU24:AV24" si="54">+AU20-AU23</f>
         <v>8154</v>
       </c>
       <c r="AV24" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>13197</v>
       </c>
       <c r="AW24" s="2">
-        <f t="shared" ref="AW24:AY24" si="51">+AW20-AW23</f>
+        <f t="shared" ref="AW24:AY24" si="55">+AW20-AW23</f>
         <v>17222</v>
       </c>
       <c r="AX24" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>25684</v>
       </c>
       <c r="AY24" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>43818</v>
       </c>
       <c r="AZ24" s="2">
-        <f t="shared" ref="AZ24:BE24" si="52">+AZ20-AZ23</f>
+        <f t="shared" ref="AZ24:BE24" si="56">+AZ20-AZ23</f>
         <v>68662</v>
       </c>
       <c r="BA24" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>64304</v>
       </c>
       <c r="BB24" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>70537</v>
       </c>
       <c r="BC24" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>93626</v>
       </c>
       <c r="BD24" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>84263</v>
       </c>
       <c r="BE24" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>88186</v>
       </c>
       <c r="BF24" s="2">
-        <f t="shared" ref="BF24:BG24" si="53">+BF20-BF23</f>
+        <f t="shared" ref="BF24:BG24" si="57">+BF20-BF23</f>
         <v>101839</v>
       </c>
       <c r="BG24" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>98392</v>
       </c>
       <c r="BH24" s="2">
@@ -4651,67 +4638,67 @@
         <v>180693</v>
       </c>
       <c r="BM24" s="2">
-        <f t="shared" ref="BM24:CB24" si="54">+BM20-BM23</f>
+        <f t="shared" ref="BM24:CB24" si="58">+BM20-BM23</f>
         <v>179319.16140000004</v>
       </c>
       <c r="BN24" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>185229.90237600001</v>
       </c>
       <c r="BO24" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>191383.83189540001</v>
       </c>
       <c r="BP24" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>197793.15373522806</v>
       </c>
       <c r="BQ24" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>204470.76934987621</v>
       </c>
       <c r="BR24" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>211430.32060380955</v>
       </c>
       <c r="BS24" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>218686.23520842497</v>
       </c>
       <c r="BT24" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>226253.77503672801</v>
       </c>
       <c r="BU24" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>234149.08750071854</v>
       </c>
       <c r="BV24" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>242389.2601883348</v>
       </c>
       <c r="BW24" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>250992.37896953372</v>
       </c>
       <c r="BX24" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>254964.87198399135</v>
       </c>
       <c r="BY24" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>259289.60162314185</v>
       </c>
       <c r="BZ24" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>263984.52646294271</v>
       </c>
       <c r="CA24" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>269068.80999662029</v>
       </c>
       <c r="CB24" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>274562.89697957033</v>
       </c>
     </row>
@@ -4794,9 +4781,8 @@
         <f>+BL25-AC25-AB25-AA25</f>
         <v>7765</v>
       </c>
-      <c r="AE25" s="20">
-        <f>+AA25*1.03</f>
-        <v>7926.88</v>
+      <c r="AE25" s="2">
+        <v>8268</v>
       </c>
       <c r="AN25" s="2">
         <v>380</v>
@@ -4863,11 +4849,11 @@
         <v>18752</v>
       </c>
       <c r="BI25" s="7">
-        <f t="shared" ref="BI25:BI26" si="55">SUM(O25:R25)</f>
+        <f t="shared" ref="BI25:BI26" si="59">SUM(O25:R25)</f>
         <v>21914</v>
       </c>
       <c r="BJ25" s="7">
-        <f t="shared" ref="BJ25:BJ26" si="56">SUM(S25:V25)</f>
+        <f t="shared" ref="BJ25:BJ26" si="60">SUM(S25:V25)</f>
         <v>26251</v>
       </c>
       <c r="BK25" s="2">
@@ -4881,63 +4867,63 @@
         <v>31997.4</v>
       </c>
       <c r="BN25" s="2">
-        <f t="shared" ref="BN25:CB25" si="57">+BM25*1.02</f>
+        <f t="shared" ref="BN25:CB25" si="61">+BM25*1.02</f>
         <v>32637.348000000002</v>
       </c>
       <c r="BO25" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>33290.094960000002</v>
       </c>
       <c r="BP25" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>33955.896859200002</v>
       </c>
       <c r="BQ25" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>34635.014796383999</v>
       </c>
       <c r="BR25" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>35327.715092311679</v>
       </c>
       <c r="BS25" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>36034.269394157913</v>
       </c>
       <c r="BT25" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>36754.954782041073</v>
       </c>
       <c r="BU25" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>37490.053877681894</v>
       </c>
       <c r="BV25" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>38239.854955235533</v>
       </c>
       <c r="BW25" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>39004.652054340244</v>
       </c>
       <c r="BX25" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>39784.745095427046</v>
       </c>
       <c r="BY25" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>40580.43999733559</v>
       </c>
       <c r="BZ25" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>41392.048797282303</v>
       </c>
       <c r="CA25" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>42219.889773227951</v>
       </c>
       <c r="CB25" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>43064.287568692511</v>
       </c>
       <c r="CD25" s="2" t="s">
@@ -5026,9 +5012,8 @@
         <f>+BL26-AC26-AB26-AA26</f>
         <v>6523</v>
       </c>
-      <c r="AE26" s="20">
-        <f>+AA26*1.03</f>
-        <v>6989.58</v>
+      <c r="AE26" s="2">
+        <v>7175</v>
       </c>
       <c r="AN26" s="2">
         <v>1166</v>
@@ -5095,11 +5080,11 @@
         <v>19916</v>
       </c>
       <c r="BI26" s="7">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>21973</v>
       </c>
       <c r="BJ26" s="7">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>25094</v>
       </c>
       <c r="BK26" s="2">
@@ -5113,63 +5098,63 @@
         <v>26618.94</v>
       </c>
       <c r="BN26" s="2">
-        <f t="shared" ref="BN26:CB26" si="58">+BM26*1.02</f>
+        <f t="shared" ref="BN26:CB26" si="62">+BM26*1.02</f>
         <v>27151.318800000001</v>
       </c>
       <c r="BO26" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>27694.345176000003</v>
       </c>
       <c r="BP26" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>28248.232079520003</v>
       </c>
       <c r="BQ26" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>28813.196721110402</v>
       </c>
       <c r="BR26" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>29389.46065553261</v>
       </c>
       <c r="BS26" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>29977.249868643263</v>
       </c>
       <c r="BT26" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>30576.794866016127</v>
       </c>
       <c r="BU26" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>31188.330763336449</v>
       </c>
       <c r="BV26" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>31812.097378603179</v>
       </c>
       <c r="BW26" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>32448.339326175243</v>
       </c>
       <c r="BX26" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>33097.306112698745</v>
       </c>
       <c r="BY26" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>33759.252234952721</v>
       </c>
       <c r="BZ26" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>34434.437279651778</v>
       </c>
       <c r="CA26" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>35123.126025244812</v>
       </c>
       <c r="CB26" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>35825.588545749706</v>
       </c>
       <c r="CD26" s="2" t="s">
@@ -5184,35 +5169,35 @@
         <v>28</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" ref="C27" si="59">+C25+C26</f>
+        <f t="shared" ref="C27" si="63">+C25+C26</f>
         <v>7638</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" ref="D27:F27" si="60">+D25+D26</f>
+        <f t="shared" ref="D27:F27" si="64">+D25+D26</f>
         <v>7528</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>7809</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>7966</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" ref="K27:N27" si="61">+K25+K26</f>
+        <f t="shared" ref="K27:N27" si="65">+K25+K26</f>
         <v>9648</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>9517</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>9589</v>
       </c>
       <c r="N27" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>9914</v>
       </c>
       <c r="O27" s="2">
@@ -5228,11 +5213,11 @@
         <v>11129</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" ref="R27" si="62">+R25+R26</f>
+        <f t="shared" ref="R27" si="66">+R25+R26</f>
         <v>11388</v>
       </c>
       <c r="S27" s="2">
-        <f t="shared" ref="S27" si="63">+S25+S26</f>
+        <f t="shared" ref="S27" si="67">+S25+S26</f>
         <v>12755</v>
       </c>
       <c r="T27" s="2">
@@ -5240,127 +5225,127 @@
         <v>12580</v>
       </c>
       <c r="U27" s="2">
-        <f t="shared" ref="U27" si="64">+U25+U26</f>
+        <f t="shared" ref="U27" si="68">+U25+U26</f>
         <v>12809</v>
       </c>
       <c r="V27" s="2">
-        <f t="shared" ref="V27:Y27" si="65">+V25+V26</f>
+        <f t="shared" ref="V27:Y27" si="69">+V25+V26</f>
         <v>13201</v>
       </c>
       <c r="W27" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>14316</v>
       </c>
       <c r="X27" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>13658</v>
       </c>
       <c r="Y27" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>13415</v>
       </c>
       <c r="Z27" s="2">
-        <f t="shared" ref="Z27:AA27" si="66">+Z25+Z26</f>
+        <f t="shared" ref="Z27:AA27" si="70">+Z25+Z26</f>
         <v>13458</v>
       </c>
       <c r="AA27" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>14482</v>
       </c>
       <c r="AB27" s="2">
-        <f t="shared" ref="AB27:AC27" si="67">+AB25+AB26</f>
+        <f t="shared" ref="AB27:AC27" si="71">+AB25+AB26</f>
         <v>14371</v>
       </c>
       <c r="AC27" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>14326</v>
       </c>
       <c r="AD27" s="2">
-        <f t="shared" ref="AD27:AE27" si="68">+AD25+AD26</f>
+        <f t="shared" ref="AD27:AE27" si="72">+AD25+AD26</f>
         <v>14288</v>
       </c>
-      <c r="AE27" s="20">
-        <f t="shared" si="68"/>
-        <v>14916.46</v>
+      <c r="AE27" s="2">
+        <f t="shared" si="72"/>
+        <v>15443</v>
       </c>
       <c r="AN27" s="2">
-        <f t="shared" ref="AN27:AO27" si="69">+AN25+AN26</f>
+        <f t="shared" ref="AN27:AO27" si="73">+AN25+AN26</f>
         <v>1546</v>
       </c>
       <c r="AO27" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>1568</v>
       </c>
       <c r="AP27" s="2">
-        <f t="shared" ref="AP27:AR27" si="70">+AP25+AP26</f>
+        <f t="shared" ref="AP27:AR27" si="74">+AP25+AP26</f>
         <v>1555</v>
       </c>
       <c r="AQ27" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>1683</v>
       </c>
       <c r="AR27" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>1910</v>
       </c>
       <c r="AS27" s="2">
-        <f t="shared" ref="AS27:AT27" si="71">+AS25+AS26</f>
+        <f t="shared" ref="AS27:AT27" si="75">+AS25+AS26</f>
         <v>2393</v>
       </c>
       <c r="AT27" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>3145</v>
       </c>
       <c r="AU27" s="2">
-        <f t="shared" ref="AU27:AV27" si="72">+AU25+AU26</f>
+        <f t="shared" ref="AU27:AV27" si="76">+AU25+AU26</f>
         <v>3745</v>
       </c>
       <c r="AV27" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>4870</v>
       </c>
       <c r="AW27" s="2">
-        <f t="shared" ref="AW27:AY27" si="73">+AW25+AW26</f>
+        <f t="shared" ref="AW27:AY27" si="77">+AW25+AW26</f>
         <v>5482</v>
       </c>
       <c r="AX27" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>7299</v>
       </c>
       <c r="AY27" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>10028</v>
       </c>
       <c r="AZ27" s="2">
-        <f t="shared" ref="AZ27:BE27" si="74">+AZ25+AZ26</f>
+        <f t="shared" ref="AZ27:BE27" si="78">+AZ25+AZ26</f>
         <v>13421</v>
       </c>
       <c r="BA27" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>15305</v>
       </c>
       <c r="BB27" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>18034</v>
       </c>
       <c r="BC27" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>22396</v>
       </c>
       <c r="BD27" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>24239</v>
       </c>
       <c r="BE27" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>26842</v>
       </c>
       <c r="BF27" s="2">
-        <f t="shared" ref="BF27:BG27" si="75">+BF25+BF26</f>
+        <f t="shared" ref="BF27:BG27" si="79">+BF25+BF26</f>
         <v>30941</v>
       </c>
       <c r="BG27" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>34462</v>
       </c>
       <c r="BH27" s="2">
@@ -5384,67 +5369,67 @@
         <v>57467</v>
       </c>
       <c r="BM27" s="2">
-        <f t="shared" ref="BM27:CB27" si="76">+BM25+BM26</f>
+        <f t="shared" ref="BM27:CB27" si="80">+BM25+BM26</f>
         <v>58616.34</v>
       </c>
       <c r="BN27" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>59788.666800000006</v>
       </c>
       <c r="BO27" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>60984.440136000005</v>
       </c>
       <c r="BP27" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>62204.128938720009</v>
       </c>
       <c r="BQ27" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>63448.211517494405</v>
       </c>
       <c r="BR27" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>64717.175747844289</v>
       </c>
       <c r="BS27" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>66011.519262801172</v>
       </c>
       <c r="BT27" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>67331.749648057201</v>
       </c>
       <c r="BU27" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>68678.384641018347</v>
       </c>
       <c r="BV27" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>70051.952333838708</v>
       </c>
       <c r="BW27" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>71452.991380515479</v>
       </c>
       <c r="BX27" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>72882.051208125791</v>
       </c>
       <c r="BY27" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>74339.692232288304</v>
       </c>
       <c r="BZ27" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>75826.486076934088</v>
       </c>
       <c r="CA27" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>77343.01579847277</v>
       </c>
       <c r="CB27" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>78889.876114442217</v>
       </c>
       <c r="CD27" s="2" t="s">
@@ -5460,35 +5445,35 @@
         <v>29</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" ref="C28" si="77">+C24-C27</f>
+        <f t="shared" ref="C28" si="81">+C24-C27</f>
         <v>26274</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" ref="D28:F28" si="78">+D24-D27</f>
+        <f t="shared" ref="D28:F28" si="82">+D24-D27</f>
         <v>15894</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>12612</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>16118</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" ref="K28:N28" si="79">+K24-K27</f>
+        <f t="shared" ref="K28:N28" si="83">+K24-K27</f>
         <v>25569</v>
       </c>
       <c r="L28" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>12853</v>
       </c>
       <c r="M28" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>13091</v>
       </c>
       <c r="N28" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>14775</v>
       </c>
       <c r="O28" s="2">
@@ -5504,11 +5489,11 @@
         <v>24126</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" ref="R28" si="80">+R24-R27</f>
+        <f t="shared" ref="R28" si="84">+R24-R27</f>
         <v>23786</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" ref="S28" si="81">+S24-S27</f>
+        <f t="shared" ref="S28" si="85">+S24-S27</f>
         <v>41488</v>
       </c>
       <c r="T28" s="2">
@@ -5516,127 +5501,127 @@
         <v>29979</v>
       </c>
       <c r="U28" s="2">
-        <f t="shared" ref="U28" si="82">+U24-U27</f>
+        <f t="shared" ref="U28" si="86">+U24-U27</f>
         <v>23076</v>
       </c>
       <c r="V28" s="2">
-        <f t="shared" ref="V28:Y28" si="83">+V24-V27</f>
+        <f t="shared" ref="V28:Y28" si="87">+V24-V27</f>
         <v>24894</v>
       </c>
       <c r="W28" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>36016</v>
       </c>
       <c r="X28" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>28318</v>
       </c>
       <c r="Y28" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>22998</v>
       </c>
       <c r="Z28" s="2">
-        <f t="shared" ref="Z28:AA28" si="84">+Z24-Z27</f>
+        <f t="shared" ref="Z28:AA28" si="88">+Z24-Z27</f>
         <v>26969</v>
       </c>
       <c r="AA28" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>40373</v>
       </c>
       <c r="AB28" s="2">
-        <f t="shared" ref="AB28:AC28" si="85">+AB24-AB27</f>
+        <f t="shared" ref="AB28:AC28" si="89">+AB24-AB27</f>
         <v>27900</v>
       </c>
       <c r="AC28" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v>25352</v>
       </c>
       <c r="AD28" s="2">
-        <f t="shared" ref="AD28:AE28" si="86">+AD24-AD27</f>
+        <f t="shared" ref="AD28:AE28" si="90">+AD24-AD27</f>
         <v>29601</v>
       </c>
-      <c r="AE28" s="20">
-        <f t="shared" si="86"/>
-        <v>41129.956499999993</v>
+      <c r="AE28" s="2">
+        <f t="shared" si="90"/>
+        <v>42832</v>
       </c>
       <c r="AN28" s="2">
-        <f t="shared" ref="AN28:AO28" si="87">+AN24-AN27</f>
+        <f t="shared" ref="AN28:AO28" si="91">+AN24-AN27</f>
         <v>620</v>
       </c>
       <c r="AO28" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>-333</v>
       </c>
       <c r="AP28" s="2">
-        <f t="shared" ref="AP28:AR28" si="88">+AP24-AP27</f>
+        <f t="shared" ref="AP28:AR28" si="92">+AP24-AP27</f>
         <v>48</v>
       </c>
       <c r="AQ28" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>25</v>
       </c>
       <c r="AR28" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>349</v>
       </c>
       <c r="AS28" s="2">
-        <f t="shared" ref="AS28:AT28" si="89">+AS24-AS27</f>
+        <f t="shared" ref="AS28:AT28" si="93">+AS24-AS27</f>
         <v>1650</v>
       </c>
       <c r="AT28" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>2453</v>
       </c>
       <c r="AU28" s="2">
-        <f t="shared" ref="AU28:AV28" si="90">+AU24-AU27</f>
+        <f t="shared" ref="AU28:AV28" si="94">+AU24-AU27</f>
         <v>4409</v>
       </c>
       <c r="AV28" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>8327</v>
       </c>
       <c r="AW28" s="2">
-        <f t="shared" ref="AW28:AY28" si="91">+AW24-AW27</f>
+        <f t="shared" ref="AW28:AY28" si="95">+AW24-AW27</f>
         <v>11740</v>
       </c>
       <c r="AX28" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>18385</v>
       </c>
       <c r="AY28" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>33790</v>
       </c>
       <c r="AZ28" s="2">
-        <f t="shared" ref="AZ28:BE28" si="92">+AZ24-AZ27</f>
+        <f t="shared" ref="AZ28:BE28" si="96">+AZ24-AZ27</f>
         <v>55241</v>
       </c>
       <c r="BA28" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>48999</v>
       </c>
       <c r="BB28" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>52503</v>
       </c>
       <c r="BC28" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>71230</v>
       </c>
       <c r="BD28" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>60024</v>
       </c>
       <c r="BE28" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>61344</v>
       </c>
       <c r="BF28" s="2">
-        <f t="shared" ref="BF28:BG28" si="93">+BF24-BF27</f>
+        <f t="shared" ref="BF28:BG28" si="97">+BF24-BF27</f>
         <v>70898</v>
       </c>
       <c r="BG28" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>63930</v>
       </c>
       <c r="BH28" s="2">
@@ -5660,67 +5645,67 @@
         <v>123226</v>
       </c>
       <c r="BM28" s="2">
-        <f t="shared" ref="BM28:CB28" si="94">+BM24-BM27</f>
+        <f t="shared" ref="BM28:CB28" si="98">+BM24-BM27</f>
         <v>120702.82140000004</v>
       </c>
       <c r="BN28" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>125441.23557600001</v>
       </c>
       <c r="BO28" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>130399.39175940001</v>
       </c>
       <c r="BP28" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>135589.02479650805</v>
       </c>
       <c r="BQ28" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>141022.5578323818</v>
       </c>
       <c r="BR28" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>146713.14485596528</v>
       </c>
       <c r="BS28" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>152674.71594562382</v>
       </c>
       <c r="BT28" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>158922.02538867079</v>
       </c>
       <c r="BU28" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>165470.70285970019</v>
       </c>
       <c r="BV28" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>172337.30785449609</v>
       </c>
       <c r="BW28" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>179539.38758901824</v>
       </c>
       <c r="BX28" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>182082.82077586558</v>
       </c>
       <c r="BY28" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>184949.90939085354</v>
       </c>
       <c r="BZ28" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>188158.04038600862</v>
       </c>
       <c r="CA28" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>191725.79419814752</v>
       </c>
       <c r="CB28" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>195673.02086512811</v>
       </c>
       <c r="CD28" s="2" t="s">
@@ -5810,8 +5795,8 @@
         <f>+BL29-AC29-AB29-AA29</f>
         <v>19</v>
       </c>
-      <c r="AE29" s="20">
-        <v>-75</v>
+      <c r="AE29" s="2">
+        <v>-248</v>
       </c>
       <c r="AN29" s="2">
         <v>203</v>
@@ -5878,11 +5863,11 @@
         <v>803</v>
       </c>
       <c r="BI29" s="7">
-        <f t="shared" ref="BI29" si="95">SUM(O29:R29)</f>
+        <f t="shared" ref="BI29" si="99">SUM(O29:R29)</f>
         <v>258</v>
       </c>
       <c r="BJ29" s="7">
-        <f t="shared" ref="BJ29" si="96">SUM(S29:V29)</f>
+        <f t="shared" ref="BJ29" si="100">SUM(S29:V29)</f>
         <v>-334</v>
       </c>
       <c r="BK29" s="2">
@@ -5896,63 +5881,63 @@
         <v>279.76</v>
       </c>
       <c r="BN29" s="2">
-        <f t="shared" ref="BN29:CB29" si="97">+BM29*1.04</f>
+        <f t="shared" ref="BN29:CB29" si="101">+BM29*1.04</f>
         <v>290.9504</v>
       </c>
       <c r="BO29" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>302.588416</v>
       </c>
       <c r="BP29" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>314.69195264000001</v>
       </c>
       <c r="BQ29" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>327.2796307456</v>
       </c>
       <c r="BR29" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>340.37081597542402</v>
       </c>
       <c r="BS29" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>353.985648614441</v>
       </c>
       <c r="BT29" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>368.14507455901867</v>
       </c>
       <c r="BU29" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>382.8708775413794</v>
       </c>
       <c r="BV29" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>398.18571264303461</v>
       </c>
       <c r="BW29" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>414.11314114875603</v>
       </c>
       <c r="BX29" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>430.67766679470628</v>
       </c>
       <c r="BY29" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>447.90477346649453</v>
       </c>
       <c r="BZ29" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>465.82096440515431</v>
       </c>
       <c r="CA29" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>484.45380298136052</v>
       </c>
       <c r="CB29" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>503.83195510061495</v>
       </c>
       <c r="CD29" s="2" t="s">
@@ -5967,35 +5952,35 @@
         <v>34</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" ref="C30" si="98">+C28+C29</f>
+        <f t="shared" ref="C30" si="102">+C28+C29</f>
         <v>27030</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" ref="D30:F30" si="99">+D28+D29</f>
+        <f t="shared" ref="D30:F30" si="103">+D28+D29</f>
         <v>16168</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v>13284</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v>16421</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" ref="K30:N30" si="100">+K28+K29</f>
+        <f t="shared" ref="K30:N30" si="104">+K28+K29</f>
         <v>25918</v>
       </c>
       <c r="L30" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>13135</v>
       </c>
       <c r="M30" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>13137</v>
       </c>
       <c r="N30" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>14901</v>
       </c>
       <c r="O30" s="2">
@@ -6011,11 +5996,11 @@
         <v>24369</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" ref="R30" si="101">+R28+R29</f>
+        <f t="shared" ref="R30" si="105">+R28+R29</f>
         <v>23248</v>
       </c>
       <c r="S30" s="2">
-        <f t="shared" ref="S30" si="102">+S28+S29</f>
+        <f t="shared" ref="S30" si="106">+S28+S29</f>
         <v>41241</v>
       </c>
       <c r="T30" s="2">
@@ -6023,127 +6008,127 @@
         <v>30139</v>
       </c>
       <c r="U30" s="2">
-        <f t="shared" ref="U30:AE30" si="103">+U28+U29</f>
+        <f t="shared" ref="U30:AE30" si="107">+U28+U29</f>
         <v>23066</v>
       </c>
       <c r="V30" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="107"/>
         <v>24657</v>
       </c>
       <c r="W30" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="107"/>
         <v>35623</v>
       </c>
       <c r="X30" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="107"/>
         <v>28382</v>
       </c>
       <c r="Y30" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="107"/>
         <v>22733</v>
       </c>
       <c r="Z30" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="107"/>
         <v>26998</v>
       </c>
       <c r="AA30" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="107"/>
         <v>40323</v>
       </c>
       <c r="AB30" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="107"/>
         <v>28058</v>
       </c>
       <c r="AC30" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="107"/>
         <v>25494</v>
       </c>
       <c r="AD30" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="107"/>
         <v>29620</v>
       </c>
-      <c r="AE30" s="20">
-        <f t="shared" si="103"/>
-        <v>41054.956499999993</v>
+      <c r="AE30" s="2">
+        <f t="shared" si="107"/>
+        <v>42584</v>
       </c>
       <c r="AN30" s="2">
-        <f t="shared" ref="AN30:AO30" si="104">+AN28+AN29</f>
+        <f t="shared" ref="AN30:AO30" si="108">+AN28+AN29</f>
         <v>823</v>
       </c>
       <c r="AO30" s="2">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>-116</v>
       </c>
       <c r="AP30" s="2">
-        <f t="shared" ref="AP30:AR30" si="105">+AP28+AP29</f>
+        <f t="shared" ref="AP30:AR30" si="109">+AP28+AP29</f>
         <v>118</v>
       </c>
       <c r="AQ30" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>118</v>
       </c>
       <c r="AR30" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>406</v>
       </c>
       <c r="AS30" s="2">
-        <f t="shared" ref="AS30:AT30" si="106">+AS28+AS29</f>
+        <f t="shared" ref="AS30:AT30" si="110">+AS28+AS29</f>
         <v>1815</v>
       </c>
       <c r="AT30" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>2818</v>
       </c>
       <c r="AU30" s="2">
-        <f t="shared" ref="AU30:AV30" si="107">+AU28+AU29</f>
+        <f t="shared" ref="AU30:AV30" si="111">+AU28+AU29</f>
         <v>5008</v>
       </c>
       <c r="AV30" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>8947</v>
       </c>
       <c r="AW30" s="2">
-        <f t="shared" ref="AW30:AY30" si="108">+AW28+AW29</f>
+        <f t="shared" ref="AW30:AY30" si="112">+AW28+AW29</f>
         <v>12066</v>
       </c>
       <c r="AX30" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
         <v>18540</v>
       </c>
       <c r="AY30" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
         <v>34205</v>
       </c>
       <c r="AZ30" s="2">
-        <f t="shared" ref="AZ30:BE30" si="109">+AZ28+AZ29</f>
+        <f t="shared" ref="AZ30:BE30" si="113">+AZ28+AZ29</f>
         <v>55763</v>
       </c>
       <c r="BA30" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="113"/>
         <v>50155</v>
       </c>
       <c r="BB30" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="113"/>
         <v>53483</v>
       </c>
       <c r="BC30" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="113"/>
         <v>72515</v>
       </c>
       <c r="BD30" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="113"/>
         <v>61372</v>
       </c>
       <c r="BE30" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="113"/>
         <v>64089</v>
       </c>
       <c r="BF30" s="2">
-        <f t="shared" ref="BF30:BG30" si="110">+BF28+BF29</f>
+        <f t="shared" ref="BF30:BG30" si="114">+BF28+BF29</f>
         <v>72903</v>
       </c>
       <c r="BG30" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="114"/>
         <v>65737</v>
       </c>
       <c r="BH30" s="2">
@@ -6167,67 +6152,67 @@
         <v>123495</v>
       </c>
       <c r="BM30" s="2">
-        <f t="shared" ref="BM30:CB30" si="111">+BM28+BM29</f>
+        <f t="shared" ref="BM30:CB30" si="115">+BM28+BM29</f>
         <v>120982.58140000004</v>
       </c>
       <c r="BN30" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>125732.18597600001</v>
       </c>
       <c r="BO30" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>130701.98017540001</v>
       </c>
       <c r="BP30" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>135903.71674914804</v>
       </c>
       <c r="BQ30" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>141349.83746312739</v>
       </c>
       <c r="BR30" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>147053.5156719407</v>
       </c>
       <c r="BS30" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>153028.70159423826</v>
       </c>
       <c r="BT30" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>159290.17046322982</v>
       </c>
       <c r="BU30" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>165853.57373724156</v>
       </c>
       <c r="BV30" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>172735.49356713911</v>
       </c>
       <c r="BW30" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>179953.500730167</v>
       </c>
       <c r="BX30" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>182513.49844266029</v>
       </c>
       <c r="BY30" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>185397.81416432004</v>
       </c>
       <c r="BZ30" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>188623.86135041379</v>
       </c>
       <c r="CA30" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>192210.24800112887</v>
       </c>
       <c r="CB30" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>196176.85282022873</v>
       </c>
       <c r="CD30" s="2" t="s">
@@ -6317,9 +6302,8 @@
         <f>+BL31-AC31-AB31-AA31</f>
         <v>14874</v>
       </c>
-      <c r="AE31" s="20">
-        <f>+AE30*0.16</f>
-        <v>6568.7930399999987</v>
+      <c r="AE31" s="2">
+        <v>6254</v>
       </c>
       <c r="AN31" s="2">
         <v>306</v>
@@ -6386,11 +6370,11 @@
         <v>9680</v>
       </c>
       <c r="BI31" s="7">
-        <f t="shared" ref="BI31" si="112">SUM(O31:R31)</f>
+        <f t="shared" ref="BI31" si="116">SUM(O31:R31)</f>
         <v>14527</v>
       </c>
       <c r="BJ31" s="7">
-        <f t="shared" ref="BJ31" si="113">SUM(S31:V31)</f>
+        <f t="shared" ref="BJ31" si="117">SUM(S31:V31)</f>
         <v>19300</v>
       </c>
       <c r="BK31" s="2">
@@ -6403,63 +6387,63 @@
         <v>29749</v>
       </c>
       <c r="BN31" s="2">
-        <f t="shared" ref="BN31:CB31" si="114">+BN30*0.16</f>
+        <f t="shared" ref="BN31:CB31" si="118">+BN30*0.16</f>
         <v>20117.149756160001</v>
       </c>
       <c r="BO31" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>20912.316828064002</v>
       </c>
       <c r="BP31" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>21744.594679863687</v>
       </c>
       <c r="BQ31" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>22615.973994100383</v>
       </c>
       <c r="BR31" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>23528.562507510513</v>
       </c>
       <c r="BS31" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>24484.592255078122</v>
       </c>
       <c r="BT31" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>25486.427274116773</v>
       </c>
       <c r="BU31" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>26536.571797958652</v>
       </c>
       <c r="BV31" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>27637.678970742258</v>
       </c>
       <c r="BW31" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>28792.56011682672</v>
       </c>
       <c r="BX31" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>29202.159750825645</v>
       </c>
       <c r="BY31" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>29663.650266291206</v>
       </c>
       <c r="BZ31" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>30179.817816066206</v>
       </c>
       <c r="CA31" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>30753.639680180619</v>
       </c>
       <c r="CB31" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>31388.296451236598</v>
       </c>
     </row>
@@ -6468,35 +6452,35 @@
         <v>32</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" ref="C32" si="115">+C30-C31</f>
+        <f t="shared" ref="C32" si="119">+C30-C31</f>
         <v>20065</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" ref="D32:F32" si="116">+D30-D31</f>
+        <f t="shared" ref="D32:F32" si="120">+D30-D31</f>
         <v>13822</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>11519</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>14125</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" ref="K32:N32" si="117">+K30-K31</f>
+        <f t="shared" ref="K32:N32" si="121">+K30-K31</f>
         <v>22236</v>
       </c>
       <c r="L32" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>11249</v>
       </c>
       <c r="M32" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>11253</v>
       </c>
       <c r="N32" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>12673</v>
       </c>
       <c r="O32" s="2">
@@ -6512,11 +6496,11 @@
         <v>21744</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" ref="R32" si="118">+R30-R31</f>
+        <f t="shared" ref="R32" si="122">+R30-R31</f>
         <v>20551</v>
       </c>
       <c r="S32" s="2">
-        <f t="shared" ref="S32" si="119">+S30-S31</f>
+        <f t="shared" ref="S32" si="123">+S30-S31</f>
         <v>34630</v>
       </c>
       <c r="T32" s="2">
@@ -6524,127 +6508,127 @@
         <v>25010</v>
       </c>
       <c r="U32" s="2">
-        <f t="shared" ref="U32:AE32" si="120">+U30-U31</f>
+        <f t="shared" ref="U32:AE32" si="124">+U30-U31</f>
         <v>19442</v>
       </c>
       <c r="V32" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="124"/>
         <v>20721</v>
       </c>
       <c r="W32" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="124"/>
         <v>29998</v>
       </c>
       <c r="X32" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="124"/>
         <v>24160</v>
       </c>
       <c r="Y32" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="124"/>
         <v>19881</v>
       </c>
       <c r="Z32" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="124"/>
         <v>22956</v>
       </c>
       <c r="AA32" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="124"/>
         <v>33916</v>
       </c>
       <c r="AB32" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="124"/>
         <v>23636</v>
       </c>
       <c r="AC32" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="124"/>
         <v>21448</v>
       </c>
       <c r="AD32" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="124"/>
         <v>14746</v>
       </c>
-      <c r="AE32" s="20">
-        <f t="shared" si="120"/>
-        <v>34486.163459999996</v>
+      <c r="AE32" s="2">
+        <f t="shared" si="124"/>
+        <v>36330</v>
       </c>
       <c r="AN32" s="2">
-        <f t="shared" ref="AN32:AO32" si="121">+AN30-AN31</f>
+        <f t="shared" ref="AN32:AO32" si="125">+AN30-AN31</f>
         <v>517</v>
       </c>
       <c r="AO32" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="125"/>
         <v>-116</v>
       </c>
       <c r="AP32" s="2">
-        <f t="shared" ref="AP32:AR32" si="122">+AP30-AP31</f>
+        <f t="shared" ref="AP32:AR32" si="126">+AP30-AP31</f>
         <v>96</v>
       </c>
       <c r="AQ32" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="126"/>
         <v>94</v>
       </c>
       <c r="AR32" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="126"/>
         <v>299</v>
       </c>
       <c r="AS32" s="2">
-        <f t="shared" ref="AS32:AT32" si="123">+AS30-AS31</f>
+        <f t="shared" ref="AS32:AT32" si="127">+AS30-AS31</f>
         <v>1335</v>
       </c>
       <c r="AT32" s="2">
-        <f t="shared" si="123"/>
+        <f t="shared" si="127"/>
         <v>1989</v>
       </c>
       <c r="AU32" s="2">
-        <f t="shared" ref="AU32:AV32" si="124">+AU30-AU31</f>
+        <f t="shared" ref="AU32:AV32" si="128">+AU30-AU31</f>
         <v>3496</v>
       </c>
       <c r="AV32" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="128"/>
         <v>6119</v>
       </c>
       <c r="AW32" s="2">
-        <f t="shared" ref="AW32:AY32" si="125">+AW30-AW31</f>
+        <f t="shared" ref="AW32:AY32" si="129">+AW30-AW31</f>
         <v>8235</v>
       </c>
       <c r="AX32" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>14013</v>
       </c>
       <c r="AY32" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>25922</v>
       </c>
       <c r="AZ32" s="2">
-        <f t="shared" ref="AZ32:BE32" si="126">+AZ30-AZ31</f>
+        <f t="shared" ref="AZ32:BE32" si="130">+AZ30-AZ31</f>
         <v>41733</v>
       </c>
       <c r="BA32" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="130"/>
         <v>37037</v>
       </c>
       <c r="BB32" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="130"/>
         <v>39510</v>
       </c>
       <c r="BC32" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="130"/>
         <v>53394</v>
       </c>
       <c r="BD32" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="130"/>
         <v>45687</v>
       </c>
       <c r="BE32" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="130"/>
         <v>48351</v>
       </c>
       <c r="BF32" s="2">
-        <f t="shared" ref="BF32:BG32" si="127">+BF30-BF31</f>
+        <f t="shared" ref="BF32:BG32" si="131">+BF30-BF31</f>
         <v>59531</v>
       </c>
       <c r="BG32" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="131"/>
         <v>55256</v>
       </c>
       <c r="BH32" s="2">
@@ -6668,67 +6652,67 @@
         <v>93746</v>
       </c>
       <c r="BM32" s="2">
-        <f t="shared" ref="BM32:CB32" si="128">+BM30-BM31</f>
+        <f t="shared" ref="BM32:CB32" si="132">+BM30-BM31</f>
         <v>91233.581400000039</v>
       </c>
       <c r="BN32" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="132"/>
         <v>105615.03621984001</v>
       </c>
       <c r="BO32" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="132"/>
         <v>109789.663347336</v>
       </c>
       <c r="BP32" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="132"/>
         <v>114159.12206928435</v>
       </c>
       <c r="BQ32" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="132"/>
         <v>118733.86346902701</v>
       </c>
       <c r="BR32" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="132"/>
         <v>123524.95316443019</v>
       </c>
       <c r="BS32" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="132"/>
         <v>128544.10933916013</v>
       </c>
       <c r="BT32" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="132"/>
         <v>133803.74318911304</v>
       </c>
       <c r="BU32" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="132"/>
         <v>139317.0019392829</v>
       </c>
       <c r="BV32" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="132"/>
         <v>145097.81459639687</v>
       </c>
       <c r="BW32" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="132"/>
         <v>151160.94061334027</v>
       </c>
       <c r="BX32" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="132"/>
         <v>153311.33869183465</v>
       </c>
       <c r="BY32" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="132"/>
         <v>155734.16389802884</v>
       </c>
       <c r="BZ32" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="132"/>
         <v>158444.04353434758</v>
       </c>
       <c r="CA32" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="132"/>
         <v>161456.60832094826</v>
       </c>
       <c r="CB32" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="132"/>
         <v>164788.55636899214</v>
       </c>
       <c r="CC32" s="2">
@@ -6736,191 +6720,191 @@
         <v>166436.44193268206</v>
       </c>
       <c r="CD32" s="2">
-        <f t="shared" ref="CD32:DX32" si="129">+CC32*(1+$CE$25)</f>
+        <f t="shared" ref="CD32:DX32" si="133">+CC32*(1+$CE$25)</f>
         <v>168100.80635200889</v>
       </c>
       <c r="CE32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>169781.81441552899</v>
       </c>
       <c r="CF32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>171479.63255968428</v>
       </c>
       <c r="CG32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>173194.42888528112</v>
       </c>
       <c r="CH32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>174926.37317413391</v>
       </c>
       <c r="CI32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>176675.63690587526</v>
       </c>
       <c r="CJ32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>178442.393274934</v>
       </c>
       <c r="CK32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>180226.81720768334</v>
       </c>
       <c r="CL32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>182029.08537976019</v>
       </c>
       <c r="CM32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>183849.37623355779</v>
       </c>
       <c r="CN32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>185687.86999589336</v>
       </c>
       <c r="CO32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>187544.74869585229</v>
       </c>
       <c r="CP32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>189420.19618281082</v>
       </c>
       <c r="CQ32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>191314.39814463892</v>
       </c>
       <c r="CR32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>193227.54212608532</v>
       </c>
       <c r="CS32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>195159.81754734617</v>
       </c>
       <c r="CT32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>197111.41572281963</v>
       </c>
       <c r="CU32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>199082.52988004783</v>
       </c>
       <c r="CV32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>201073.35517884832</v>
       </c>
       <c r="CW32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>203084.08873063681</v>
       </c>
       <c r="CX32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>205114.92961794318</v>
       </c>
       <c r="CY32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>207166.07891412263</v>
       </c>
       <c r="CZ32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>209237.73970326385</v>
       </c>
       <c r="DA32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>211330.11710029648</v>
       </c>
       <c r="DB32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>213443.41827129945</v>
       </c>
       <c r="DC32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>215577.85245401243</v>
       </c>
       <c r="DD32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>217733.63097855257</v>
       </c>
       <c r="DE32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>219910.96728833808</v>
       </c>
       <c r="DF32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>222110.07696122146</v>
       </c>
       <c r="DG32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>224331.17773083368</v>
       </c>
       <c r="DH32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>226574.48950814203</v>
       </c>
       <c r="DI32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>228840.23440322344</v>
       </c>
       <c r="DJ32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>231128.63674725569</v>
       </c>
       <c r="DK32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>233439.92311472824</v>
       </c>
       <c r="DL32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>235774.32234587552</v>
       </c>
       <c r="DM32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>238132.06556933429</v>
       </c>
       <c r="DN32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>240513.38622502764</v>
       </c>
       <c r="DO32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>242918.52008727792</v>
       </c>
       <c r="DP32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>245347.7052881507</v>
       </c>
       <c r="DQ32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>247801.1823410322</v>
       </c>
       <c r="DR32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>250279.19416444251</v>
       </c>
       <c r="DS32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>252781.98610608693</v>
       </c>
       <c r="DT32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>255309.80596714781</v>
       </c>
       <c r="DU32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>257862.90402681931</v>
       </c>
       <c r="DV32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>260441.5330670875</v>
       </c>
       <c r="DW32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>263045.94839775836</v>
       </c>
       <c r="DX32" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>265676.40788173594</v>
       </c>
     </row>
@@ -6929,19 +6913,19 @@
         <v>36</v>
       </c>
       <c r="C33" s="12">
-        <f t="shared" ref="C33" si="130">+C32/C34</f>
+        <f t="shared" ref="C33" si="134">+C32/C34</f>
         <v>0.97255857987156114</v>
       </c>
       <c r="D33" s="12">
-        <f t="shared" ref="D33:F33" si="131">+D32/D34</f>
+        <f t="shared" ref="D33:F33" si="135">+D32/D34</f>
         <v>0.68176083107937602</v>
       </c>
       <c r="E33" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="135"/>
         <v>0.58452984598534197</v>
       </c>
       <c r="F33" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="135"/>
         <v>0.70623460408563088</v>
       </c>
       <c r="G33" s="12"/>
@@ -6949,19 +6933,19 @@
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12">
-        <f t="shared" ref="K33:N33" si="132">+K32/K34</f>
+        <f t="shared" ref="K33:N33" si="136">+K32/K34</f>
         <v>1.2479223042091785</v>
       </c>
       <c r="L33" s="12">
-        <f t="shared" si="132"/>
+        <f t="shared" si="136"/>
         <v>0.63846699811252383</v>
       </c>
       <c r="M33" s="12">
-        <f t="shared" si="132"/>
+        <f t="shared" si="136"/>
         <v>0.64601300384622584</v>
       </c>
       <c r="N33" s="12">
-        <f t="shared" si="132"/>
+        <f t="shared" si="136"/>
         <v>0.73438904632051849</v>
       </c>
       <c r="O33" s="12">
@@ -6977,11 +6961,11 @@
         <v>1.2956943963183782</v>
       </c>
       <c r="R33" s="12">
-        <f t="shared" ref="R33" si="133">+R32/R34</f>
+        <f t="shared" ref="R33" si="137">+R32/R34</f>
         <v>1.2354000701047909</v>
       </c>
       <c r="S33" s="12">
-        <f t="shared" ref="S33" si="134">+S32/S34</f>
+        <f t="shared" ref="S33" si="138">+S32/S34</f>
         <v>2.0963369432743812</v>
       </c>
       <c r="T33" s="12">
@@ -6989,129 +6973,132 @@
         <v>1.5246917147727936</v>
       </c>
       <c r="U33" s="12">
-        <f t="shared" ref="U33:AD33" si="135">+U32/U34</f>
+        <f t="shared" ref="U33:AE33" si="139">+U32/U34</f>
         <v>1.1955329791418789</v>
       </c>
       <c r="V33" s="12">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>1.2855442500262897</v>
       </c>
       <c r="W33" s="12">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>1.8800783518485347</v>
       </c>
       <c r="X33" s="12">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>1.5245739743359175</v>
       </c>
       <c r="Y33" s="12">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>1.2602835837746269</v>
       </c>
       <c r="Z33" s="12">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>1.4552120089095284</v>
       </c>
       <c r="AA33" s="12">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>2.1773628858750742</v>
       </c>
       <c r="AB33" s="12">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>1.5283831076291186</v>
       </c>
       <c r="AC33" s="12">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>1.3974299876043894</v>
       </c>
       <c r="AD33" s="12">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>0.95702940564683703</v>
       </c>
-      <c r="AE33" s="23"/>
+      <c r="AE33" s="12">
+        <f t="shared" si="139"/>
+        <v>2.3978828931549452</v>
+      </c>
       <c r="AF33" s="12"/>
       <c r="AG33" s="12"/>
       <c r="AH33" s="12"/>
       <c r="AI33" s="12"/>
       <c r="AJ33" s="12"/>
       <c r="AN33" s="12">
-        <f t="shared" ref="AN33:AO33" si="136">+AN32/AN34</f>
+        <f t="shared" ref="AN33:AO33" si="140">+AN32/AN34</f>
         <v>1.4348197733151276</v>
       </c>
       <c r="AO33" s="12">
-        <f t="shared" si="136"/>
+        <f t="shared" si="140"/>
         <v>-0.33563552296933274</v>
       </c>
       <c r="AP33" s="12">
-        <f t="shared" ref="AP33:AR33" si="137">+AP32/AP34</f>
+        <f t="shared" ref="AP33:AR33" si="141">+AP32/AP34</f>
         <v>0.26535096811642273</v>
       </c>
       <c r="AQ33" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="141"/>
         <v>0.12931058200767059</v>
       </c>
       <c r="AR33" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="141"/>
         <v>0.38599471742346592</v>
       </c>
       <c r="AS33" s="12">
-        <f t="shared" ref="AS33:AT33" si="138">+AS32/AS34</f>
+        <f t="shared" ref="AS33:AT33" si="142">+AS32/AS34</f>
         <v>1.5581596209061837</v>
       </c>
       <c r="AT33" s="12">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>2.266599508162721</v>
       </c>
       <c r="AU33" s="12">
-        <f t="shared" ref="AU33:AV33" si="139">+AU32/AU34</f>
+        <f t="shared" ref="AU33:AV33" si="143">+AU32/AU34</f>
         <v>3.9312171930029729</v>
       </c>
       <c r="AV33" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="143"/>
         <v>6.7827685090656757</v>
       </c>
       <c r="AW33" s="12">
-        <f t="shared" ref="AW33:AY33" si="140">+AW32/AW34</f>
+        <f t="shared" ref="AW33:AY33" si="144">+AW32/AW34</f>
         <v>9.0793325284866118</v>
       </c>
       <c r="AX33" s="12">
-        <f t="shared" si="140"/>
+        <f t="shared" si="144"/>
         <v>15.15390737872981</v>
       </c>
       <c r="AY33" s="12">
-        <f t="shared" si="140"/>
+        <f t="shared" si="144"/>
         <v>27.675373273759003</v>
       </c>
       <c r="AZ33" s="12">
-        <f t="shared" ref="AZ33:BE33" si="141">+AZ32/AZ34</f>
+        <f t="shared" ref="AZ33:BE33" si="145">+AZ32/AZ34</f>
         <v>6.3064763445557777</v>
       </c>
       <c r="BA33" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>5.6790982137298718</v>
       </c>
       <c r="BB33" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>6.4530744220284548</v>
       </c>
       <c r="BC33" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>9.216876236067618</v>
       </c>
       <c r="BD33" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>8.3063028961611227</v>
       </c>
       <c r="BE33" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>9.2067470826545037</v>
       </c>
       <c r="BF33" s="12">
-        <f t="shared" ref="BF33:BG33" si="142">+BF32/BF34</f>
+        <f t="shared" ref="BF33:BG33" si="146">+BF32/BF34</f>
         <v>2.9764851126245446</v>
       </c>
       <c r="BG33" s="12">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>2.9714474637107351</v>
       </c>
       <c r="BH33" s="12">
@@ -7135,67 +7122,67 @@
         <v>6.0842044392898673</v>
       </c>
       <c r="BM33" s="12">
-        <f t="shared" ref="BM33:CB33" si="143">+BM32/BM34</f>
+        <f t="shared" ref="BM33:CB33" si="147">+BM32/BM34</f>
         <v>4.4287180850137089</v>
       </c>
       <c r="BN33" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>5.5141317782501682</v>
       </c>
       <c r="BO33" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>6.081161756820844</v>
       </c>
       <c r="BP33" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>6.571872503711667</v>
       </c>
       <c r="BQ33" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>7.0609380984948817</v>
       </c>
       <c r="BR33" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>7.5843024526404514</v>
       </c>
       <c r="BS33" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>8.0996454236895872</v>
       </c>
       <c r="BT33" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>6.3060055769204917</v>
       </c>
       <c r="BU33" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>7.0618466705331997</v>
       </c>
       <c r="BV33" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>7.8027689821746478</v>
       </c>
       <c r="BW33" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>8.4485245455856504</v>
       </c>
       <c r="BX33" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>8.8516626876519009</v>
       </c>
       <c r="BY33" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>9.2834118249670698</v>
       </c>
       <c r="BZ33" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>9.6928729516586252</v>
       </c>
       <c r="CA33" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>7.3876223724505659</v>
       </c>
       <c r="CB33" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>8.1096850504416924</v>
       </c>
     </row>
@@ -7279,7 +7266,9 @@
       <c r="AD34" s="2">
         <v>15408.094999999999</v>
       </c>
-      <c r="AE34" s="20"/>
+      <c r="AE34" s="2">
+        <v>15150.865</v>
+      </c>
       <c r="AN34" s="2">
         <v>360.32400000000001</v>
       </c>
@@ -7360,67 +7349,67 @@
         <v>15408.094999999999</v>
       </c>
       <c r="BM34" s="2">
-        <f t="shared" ref="BM34:CB34" si="144">+BF34*1.03</f>
+        <f t="shared" ref="BM34:CB34" si="148">+BF34*1.03</f>
         <v>20600.449080000002</v>
       </c>
       <c r="BN34" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>19153.520530000002</v>
       </c>
       <c r="BO34" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>18054.060677499998</v>
       </c>
       <c r="BP34" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>17370.866827499998</v>
       </c>
       <c r="BQ34" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>16815.593312500001</v>
       </c>
       <c r="BR34" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>16286.923410000001</v>
       </c>
       <c r="BS34" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>15870.33785</v>
       </c>
       <c r="BT34" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>21218.462552400004</v>
       </c>
       <c r="BU34" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>19728.126145900002</v>
       </c>
       <c r="BV34" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>18595.682497824997</v>
       </c>
       <c r="BW34" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>17891.992832324999</v>
       </c>
       <c r="BX34" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>17320.061111875002</v>
       </c>
       <c r="BY34" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>16775.531112300003</v>
       </c>
       <c r="BZ34" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>16346.447985500001</v>
       </c>
       <c r="CA34" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>21855.016428972005</v>
       </c>
       <c r="CB34" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>20319.969930277002</v>
       </c>
     </row>
@@ -7432,119 +7421,119 @@
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9">
-        <f t="shared" ref="O36:X36" si="145">+O10/K10-1</f>
+        <f t="shared" ref="O36:X36" si="149">+O10/K10-1</f>
         <v>0.1722751398395197</v>
       </c>
       <c r="P36" s="9">
-        <f t="shared" si="145"/>
+        <f t="shared" si="149"/>
         <v>0.65520336993301576</v>
       </c>
       <c r="Q36" s="9">
-        <f t="shared" si="145"/>
+        <f t="shared" si="149"/>
         <v>0.49784238019532134</v>
       </c>
       <c r="R36" s="9">
-        <f t="shared" si="145"/>
+        <f t="shared" si="149"/>
         <v>0.46982302223566785</v>
       </c>
       <c r="S36" s="9">
-        <f t="shared" si="145"/>
+        <f t="shared" si="149"/>
         <v>9.1940180191167231E-2</v>
       </c>
       <c r="T36" s="9">
-        <f t="shared" si="145"/>
+        <f t="shared" si="149"/>
         <v>5.4904251324627618E-2</v>
       </c>
       <c r="U36" s="9">
-        <f t="shared" si="145"/>
+        <f t="shared" si="149"/>
         <v>2.7672479150871787E-2</v>
       </c>
       <c r="V36" s="9">
-        <f t="shared" si="145"/>
+        <f t="shared" si="149"/>
         <v>9.6686220026757308E-2</v>
       </c>
       <c r="W36" s="9">
-        <f t="shared" si="145"/>
+        <f t="shared" si="149"/>
         <v>-8.1713854917071505E-2</v>
       </c>
       <c r="X36" s="9">
-        <f t="shared" si="145"/>
+        <f t="shared" si="149"/>
         <v>1.510777140597197E-2</v>
       </c>
       <c r="Y36" s="9">
-        <f t="shared" ref="Y36" si="146">+Y10/U10-1</f>
+        <f t="shared" ref="Y36" si="150">+Y10/U10-1</f>
         <v>-2.4492807082257428E-2</v>
       </c>
       <c r="Z36" s="9">
-        <f t="shared" ref="Z36" si="147">+Z10/V10-1</f>
+        <f t="shared" ref="Z36" si="151">+Z10/V10-1</f>
         <v>2.7659175151315996E-2</v>
       </c>
       <c r="AA36" s="9">
-        <f t="shared" ref="AA36" si="148">+AA10/W10-1</f>
+        <f t="shared" ref="AA36" si="152">+AA10/W10-1</f>
         <v>5.9703534777651113E-2</v>
       </c>
       <c r="AB36" s="9">
-        <f t="shared" ref="AB36" si="149">+AB10/X10-1</f>
+        <f t="shared" ref="AB36" si="153">+AB10/X10-1</f>
         <v>-0.10462851131803486</v>
       </c>
       <c r="AC36" s="9">
-        <f t="shared" ref="AC36" si="150">+AC10/Y10-1</f>
+        <f t="shared" ref="AC36" si="154">+AC10/Y10-1</f>
         <v>-9.4028082381708566E-3</v>
       </c>
       <c r="AD36" s="9">
-        <f t="shared" ref="AD36" si="151">+AD10/Z10-1</f>
+        <f t="shared" ref="AD36" si="155">+AD10/Z10-1</f>
         <v>5.5176349731765884E-2</v>
       </c>
       <c r="AE36" s="9">
-        <f t="shared" ref="AE36" si="152">+AE10/AA10-1</f>
-        <v>7.0000000000000062E-2</v>
+        <f t="shared" ref="AE36" si="156">+AE10/AA10-1</f>
+        <v>-8.0915899113368495E-3</v>
       </c>
       <c r="AF36" s="9"/>
       <c r="AG36" s="9"/>
       <c r="AH36" s="9"/>
       <c r="AU36" s="9"/>
       <c r="AV36" s="9">
-        <f t="shared" ref="AV36" si="153">+AV10/AU10-1</f>
+        <f t="shared" ref="AV36" si="157">+AV10/AU10-1</f>
         <v>53.8130081300813</v>
       </c>
       <c r="AW36" s="9">
-        <f t="shared" ref="AW36:BD36" si="154">+AW10/AV10-1</f>
+        <f t="shared" ref="AW36:BD36" si="158">+AW10/AV10-1</f>
         <v>0.93310590329279153</v>
       </c>
       <c r="AX36" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>0.93194199340136574</v>
       </c>
       <c r="AY36" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>0.82683982683982693</v>
       </c>
       <c r="AZ36" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>0.71077003347971646</v>
       </c>
       <c r="BA36" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>0.15995272708788688</v>
       </c>
       <c r="BB36" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>0.11735448460215392</v>
       </c>
       <c r="BC36" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>0.52014393426870997</v>
       </c>
       <c r="BD36" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>-0.11829774059764842</v>
       </c>
       <c r="BE36" s="9">
-        <f t="shared" ref="BE36:BI36" si="155">+BE10/BD10-1</f>
+        <f t="shared" ref="BE36:BI36" si="159">+BE10/BD10-1</f>
         <v>3.3789319678127372E-2</v>
       </c>
       <c r="BF36" s="9">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>0.16677870633106662</v>
       </c>
       <c r="BG36" s="9">
@@ -7556,7 +7545,7 @@
         <v>-3.2307681502447672E-2</v>
       </c>
       <c r="BI36" s="9">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>0.39331983364905176</v>
       </c>
       <c r="BJ36" s="9">
@@ -7564,75 +7553,75 @@
         <v>7.0405734139696641E-2</v>
       </c>
       <c r="BK36" s="9">
-        <f t="shared" ref="BK36:BL36" si="156">+BK10/BJ10-1</f>
+        <f t="shared" ref="BK36:BL36" si="160">+BK10/BJ10-1</f>
         <v>-2.3874757286278081E-2</v>
       </c>
       <c r="BL36" s="9">
-        <f t="shared" si="156"/>
+        <f t="shared" si="160"/>
         <v>2.9912804175826757E-3</v>
       </c>
       <c r="BM36" s="9">
-        <f t="shared" ref="BM36:CB36" si="157">+BM10/BL10-1</f>
+        <f t="shared" ref="BM36:CB36" si="161">+BM10/BL10-1</f>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BN36" s="9">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BO36" s="9">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BP36" s="9">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BQ36" s="9">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BR36" s="9">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BS36" s="9">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BT36" s="9">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BU36" s="9">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BV36" s="9">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BW36" s="9">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BX36" s="9">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="BY36" s="9">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>-2.0000000000000129E-2</v>
       </c>
       <c r="BZ36" s="9">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="CA36" s="9">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="CB36" s="9">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="CE36" s="15"/>
@@ -7649,35 +7638,35 @@
         <v>0.23955957530475813</v>
       </c>
       <c r="P37" s="9">
-        <f t="shared" ref="P37:W37" si="158">+P19/L19-1</f>
+        <f t="shared" ref="P37:W37" si="162">+P19/L19-1</f>
         <v>0.26618219958046141</v>
       </c>
       <c r="Q37" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="162"/>
         <v>0.32912739434478566</v>
       </c>
       <c r="R37" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="162"/>
         <v>0.25623754209911342</v>
       </c>
       <c r="S37" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="162"/>
         <v>0.23824630416851722</v>
       </c>
       <c r="T37" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="162"/>
         <v>0.17277084196201398</v>
       </c>
       <c r="U37" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="162"/>
         <v>0.12112547180601618</v>
       </c>
       <c r="V37" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="162"/>
         <v>4.984406631285232E-2</v>
       </c>
       <c r="W37" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="162"/>
         <v>6.4050010248001721E-2</v>
       </c>
       <c r="X37" s="9">
@@ -7685,32 +7674,32 @@
         <v>5.4790373845921003E-2</v>
       </c>
       <c r="Y37" s="9">
-        <f t="shared" ref="Y37" si="159">+Y19/U19-1</f>
+        <f t="shared" ref="Y37" si="163">+Y19/U19-1</f>
         <v>8.2075086716996593E-2</v>
       </c>
       <c r="Z37" s="9">
-        <f t="shared" ref="Z37" si="160">+Z19/V19-1</f>
+        <f t="shared" ref="Z37" si="164">+Z19/V19-1</f>
         <v>0.16291432145090678</v>
       </c>
       <c r="AA37" s="9">
-        <f t="shared" ref="AA37" si="161">+AA19/W19-1</f>
+        <f t="shared" ref="AA37" si="165">+AA19/W19-1</f>
         <v>0.11321390734855052</v>
       </c>
       <c r="AB37" s="9">
-        <f t="shared" ref="AB37" si="162">+AB19/X19-1</f>
+        <f t="shared" ref="AB37" si="166">+AB19/X19-1</f>
         <v>0.14157937532883724</v>
       </c>
       <c r="AC37" s="9">
-        <f t="shared" ref="AC37" si="163">+AC19/Y19-1</f>
+        <f t="shared" ref="AC37" si="167">+AC19/Y19-1</f>
         <v>0.1414227124876255</v>
       </c>
       <c r="AD37" s="9">
-        <f t="shared" ref="AD37" si="164">+AD19/Z19-1</f>
+        <f t="shared" ref="AD37" si="168">+AD19/Z19-1</f>
         <v>0.11911804248453883</v>
       </c>
-      <c r="AE37" s="9">
-        <f t="shared" ref="AE37" si="165">+AE19/AA19-1</f>
-        <v>7.0000000000000062E-2</v>
+      <c r="AE37" s="9" t="e">
+        <f>+#REF!/AA19-1</f>
+        <v>#REF!</v>
       </c>
       <c r="AF37" s="9"/>
       <c r="AG37" s="9"/>
@@ -7722,87 +7711,87 @@
         <v>0.16461205595250084</v>
       </c>
       <c r="BH37" s="9">
-        <f t="shared" ref="BH37:BJ37" si="166">+BH19/BG19-1</f>
+        <f t="shared" ref="BH37:BJ37" si="169">+BH19/BG19-1</f>
         <v>0.16152167807997242</v>
       </c>
       <c r="BI37" s="9">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0.27259708376729663</v>
       </c>
       <c r="BJ37" s="9">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0.14181951041286078</v>
       </c>
       <c r="BK37" s="9">
-        <f t="shared" ref="BK37" si="167">+BK19/BJ19-1</f>
+        <f t="shared" ref="BK37" si="170">+BK19/BJ19-1</f>
         <v>9.0504166186691215E-2</v>
       </c>
       <c r="BL37" s="9">
-        <f t="shared" ref="BL37" si="168">+BL19/BK19-1</f>
+        <f t="shared" ref="BL37" si="171">+BL19/BK19-1</f>
         <v>0.12874413145539898</v>
       </c>
       <c r="BM37" s="9">
-        <f t="shared" ref="BM37:BM38" si="169">+BM19/BL19-1</f>
+        <f t="shared" ref="BM37:BM38" si="172">+BM19/BL19-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="BN37" s="9">
-        <f t="shared" ref="BN37:BN38" si="170">+BN19/BM19-1</f>
+        <f t="shared" ref="BN37:BN38" si="173">+BN19/BM19-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="BO37" s="9">
-        <f t="shared" ref="BO37:BO38" si="171">+BO19/BN19-1</f>
+        <f t="shared" ref="BO37:BO38" si="174">+BO19/BN19-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="BP37" s="9">
-        <f t="shared" ref="BP37:BP38" si="172">+BP19/BO19-1</f>
+        <f t="shared" ref="BP37:BP38" si="175">+BP19/BO19-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="BQ37" s="9">
-        <f t="shared" ref="BQ37:BQ38" si="173">+BQ19/BP19-1</f>
+        <f t="shared" ref="BQ37:BQ38" si="176">+BQ19/BP19-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="BR37" s="9">
-        <f t="shared" ref="BR37:BR38" si="174">+BR19/BQ19-1</f>
+        <f t="shared" ref="BR37:BR38" si="177">+BR19/BQ19-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="BS37" s="9">
-        <f t="shared" ref="BS37:BS38" si="175">+BS19/BR19-1</f>
+        <f t="shared" ref="BS37:BS38" si="178">+BS19/BR19-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="BT37" s="9">
-        <f t="shared" ref="BT37:BT38" si="176">+BT19/BS19-1</f>
+        <f t="shared" ref="BT37:BT38" si="179">+BT19/BS19-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="BU37" s="9">
-        <f t="shared" ref="BU37:BU38" si="177">+BU19/BT19-1</f>
+        <f t="shared" ref="BU37:BU38" si="180">+BU19/BT19-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="BV37" s="9">
-        <f t="shared" ref="BV37:BV38" si="178">+BV19/BU19-1</f>
+        <f t="shared" ref="BV37:BV38" si="181">+BV19/BU19-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="BW37" s="9">
-        <f t="shared" ref="BW37:BW38" si="179">+BW19/BV19-1</f>
+        <f t="shared" ref="BW37:BW38" si="182">+BW19/BV19-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="BX37" s="9">
-        <f t="shared" ref="BX37:BX38" si="180">+BX19/BW19-1</f>
+        <f t="shared" ref="BX37:BX38" si="183">+BX19/BW19-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="BY37" s="9">
-        <f t="shared" ref="BY37:BY38" si="181">+BY19/BX19-1</f>
+        <f t="shared" ref="BY37:BY38" si="184">+BY19/BX19-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="BZ37" s="9">
-        <f t="shared" ref="BZ37:BZ38" si="182">+BZ19/BY19-1</f>
+        <f t="shared" ref="BZ37:BZ38" si="185">+BZ19/BY19-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="CA37" s="9">
-        <f t="shared" ref="CA37:CA38" si="183">+CA19/BZ19-1</f>
+        <f t="shared" ref="CA37:CA38" si="186">+CA19/BZ19-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="CB37" s="9">
-        <f t="shared" ref="CB37:CB38" si="184">+CB19/CA19-1</f>
+        <f t="shared" ref="CB37:CB38" si="187">+CB19/CA19-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="CE37" s="8"/>
@@ -7815,72 +7804,72 @@
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="9">
-        <f t="shared" ref="O38:AE38" si="185">O20/K20-1</f>
+        <f t="shared" ref="O38:AC38" si="188">O20/K20-1</f>
         <v>0.21368126422635836</v>
       </c>
       <c r="P38" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>0.53626121105070901</v>
       </c>
       <c r="Q38" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>0.36439641450950822</v>
       </c>
       <c r="R38" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>0.28844786546724777</v>
       </c>
       <c r="S38" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>0.11222283042740866</v>
       </c>
       <c r="T38" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>8.5885872477228009E-2</v>
       </c>
       <c r="U38" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>1.8726821720657316E-2</v>
       </c>
       <c r="V38" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>8.1405950095969182E-2</v>
       </c>
       <c r="W38" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>-5.4790431239662762E-2</v>
       </c>
       <c r="X38" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>-2.5103312156911084E-2</v>
       </c>
       <c r="Y38" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>-1.4006919080509661E-2</v>
       </c>
       <c r="Z38" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>-7.1883389168682088E-3</v>
       </c>
       <c r="AA38" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>2.0665107465387411E-2</v>
       </c>
       <c r="AB38" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>-4.3053270909781061E-2</v>
       </c>
       <c r="AC38" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>4.8657041211780383E-2</v>
       </c>
       <c r="AD38" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" ref="AD38" si="189">AD20/Z20-1</f>
         <v>6.0694093722764686E-2</v>
       </c>
       <c r="AE38" s="9">
-        <f t="shared" si="185"/>
-        <v>6.5524817060422347E-2</v>
+        <f t="shared" ref="AE38" si="190">AE20/AA20-1</f>
+        <v>3.9514948776918191E-2</v>
       </c>
       <c r="AF38" s="9"/>
       <c r="AG38" s="9"/>
@@ -7888,79 +7877,79 @@
       <c r="AI38" s="9"/>
       <c r="AJ38" s="9"/>
       <c r="AN38" s="9">
-        <f t="shared" ref="AN38:BF38" si="186">+AN20/AM20-1</f>
+        <f t="shared" ref="AN38:BF38" si="191">+AN20/AM20-1</f>
         <v>0.30143462667101395</v>
       </c>
       <c r="AO38" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="191"/>
         <v>-0.32819741951647252</v>
       </c>
       <c r="AP38" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="191"/>
         <v>7.0669401454409808E-2</v>
       </c>
       <c r="AQ38" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="191"/>
         <v>8.0982236154649945E-2</v>
       </c>
       <c r="AR38" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="191"/>
         <v>0.33381665861124543</v>
       </c>
       <c r="AS38" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="191"/>
         <v>0.68269114627370464</v>
       </c>
       <c r="AT38" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="191"/>
         <v>0.38647620414902017</v>
       </c>
       <c r="AU38" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="191"/>
         <v>0.24286823712140815</v>
       </c>
       <c r="AV38" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="191"/>
         <v>0.56173456635841035</v>
       </c>
       <c r="AW38" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="191"/>
         <v>0.14440799125123371</v>
       </c>
       <c r="AX38" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="191"/>
         <v>0.52021908868430256</v>
       </c>
       <c r="AY38" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="191"/>
         <v>0.65962437715599842</v>
       </c>
       <c r="AZ38" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="191"/>
         <v>0.44581474193756976</v>
       </c>
       <c r="BA38" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="191"/>
         <v>9.2020855163953197E-2</v>
       </c>
       <c r="BB38" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="191"/>
         <v>6.9539523725937524E-2</v>
       </c>
       <c r="BC38" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="191"/>
         <v>0.27856341803659834</v>
       </c>
       <c r="BD38" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="191"/>
         <v>-7.7342061913013738E-2</v>
       </c>
       <c r="BE38" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="191"/>
         <v>6.304518199398057E-2</v>
       </c>
       <c r="BF38" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="191"/>
         <v>0.15861957650261305</v>
       </c>
       <c r="BG38" s="9">
@@ -7988,67 +7977,67 @@
         <v>2.021994077514111E-2</v>
       </c>
       <c r="BM38" s="9">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>2.9936425128185506E-2</v>
       </c>
       <c r="BN38" s="9">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>3.6031509714712806E-2</v>
       </c>
       <c r="BO38" s="9">
-        <f t="shared" si="171"/>
+        <f t="shared" si="174"/>
         <v>3.630594784715413E-2</v>
       </c>
       <c r="BP38" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>3.6584678302633789E-2</v>
       </c>
       <c r="BQ38" s="9">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>3.6867640911288913E-2</v>
       </c>
       <c r="BR38" s="9">
-        <f t="shared" si="174"/>
+        <f t="shared" si="177"/>
         <v>3.7154767837586089E-2</v>
       </c>
       <c r="BS38" s="9">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>3.7445983486598555E-2</v>
       </c>
       <c r="BT38" s="9">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>3.7741204434945663E-2</v>
       </c>
       <c r="BU38" s="9">
-        <f t="shared" si="177"/>
+        <f t="shared" si="180"/>
         <v>3.8040339387834354E-2</v>
       </c>
       <c r="BV38" s="9">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>3.8343289163556227E-2</v>
       </c>
       <c r="BW38" s="9">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>3.8649946706674543E-2</v>
       </c>
       <c r="BX38" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>1.4992123599624874E-2</v>
       </c>
       <c r="BY38" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>1.6351144723040889E-2</v>
       </c>
       <c r="BZ38" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>1.7724811281620401E-2</v>
       </c>
       <c r="CA38" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="186"/>
         <v>1.9110055007288018E-2</v>
       </c>
       <c r="CB38" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>2.0503694764507197E-2</v>
       </c>
       <c r="CE38" s="15"/>
@@ -8111,39 +8100,39 @@
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5">
-        <f t="shared" ref="E40" si="187">+E24/E20</f>
+        <f t="shared" ref="E40" si="192">+E24/E20</f>
         <v>0.38338496198254013</v>
       </c>
       <c r="K40" s="5">
-        <f t="shared" ref="K40" si="188">+K24/K20</f>
+        <f t="shared" ref="K40" si="193">+K24/K20</f>
         <v>0.38354806739345887</v>
       </c>
       <c r="L40" s="5">
-        <f t="shared" ref="L40:N40" si="189">+L24/L20</f>
+        <f t="shared" ref="L40:N40" si="194">+L24/L20</f>
         <v>0.38361943305952362</v>
       </c>
       <c r="M40" s="5">
-        <f t="shared" si="189"/>
+        <f t="shared" si="194"/>
         <v>0.37999497361146017</v>
       </c>
       <c r="N40" s="5">
-        <f t="shared" si="189"/>
+        <f t="shared" si="194"/>
         <v>0.38160375900336951</v>
       </c>
       <c r="O40" s="5">
-        <f t="shared" ref="O40:Q40" si="190">+O24/O20</f>
+        <f t="shared" ref="O40:Q40" si="195">+O24/O20</f>
         <v>0.39777815665969724</v>
       </c>
       <c r="P40" s="5">
-        <f t="shared" si="190"/>
+        <f t="shared" si="195"/>
         <v>0.42506474370423292</v>
       </c>
       <c r="Q40" s="5">
-        <f t="shared" si="190"/>
+        <f t="shared" si="195"/>
         <v>0.43292727853230839</v>
       </c>
       <c r="R40" s="5">
-        <f t="shared" ref="R40" si="191">+R24/R20</f>
+        <f t="shared" ref="R40" si="196">+R24/R20</f>
         <v>0.42195297504798462</v>
       </c>
       <c r="S40" s="5">
@@ -8159,44 +8148,44 @@
         <v>0.43256307332537758</v>
       </c>
       <c r="V40" s="5">
-        <f t="shared" ref="V40:X40" si="192">+V24/V20</f>
+        <f t="shared" ref="V40:X40" si="197">+V24/V20</f>
         <v>0.4225922392563175</v>
       </c>
       <c r="W40" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="197"/>
         <v>0.42962254809908323</v>
       </c>
       <c r="X40" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="197"/>
         <v>0.44261672782487665</v>
       </c>
       <c r="Y40" s="5">
-        <f t="shared" ref="Y40:AE40" si="193">+Y24/Y20</f>
+        <f t="shared" ref="Y40:AD40" si="198">+Y24/Y20</f>
         <v>0.44516302553883397</v>
       </c>
       <c r="Z40" s="5">
-        <f t="shared" si="193"/>
+        <f t="shared" si="198"/>
         <v>0.45170841806520817</v>
       </c>
       <c r="AA40" s="5">
-        <f t="shared" si="193"/>
+        <f t="shared" si="198"/>
         <v>0.45874973865774621</v>
       </c>
       <c r="AB40" s="5">
-        <f t="shared" si="193"/>
+        <f t="shared" si="198"/>
         <v>0.46578074554009236</v>
       </c>
       <c r="AC40" s="5">
-        <f t="shared" si="193"/>
+        <f t="shared" si="198"/>
         <v>0.46257155181458898</v>
       </c>
       <c r="AD40" s="5">
-        <f t="shared" si="193"/>
+        <f t="shared" si="198"/>
         <v>0.46233013799641842</v>
       </c>
-      <c r="AE40" s="5">
-        <f t="shared" si="193"/>
-        <v>0.439889799186297</v>
+      <c r="AE40" s="5" t="e">
+        <f>+AE24/#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AF40" s="5"/>
       <c r="AG40" s="5"/>
@@ -8204,63 +8193,63 @@
       <c r="AI40" s="5"/>
       <c r="AJ40" s="5"/>
       <c r="AN40" s="5">
-        <f t="shared" ref="AN40:AO40" si="194">+AN24/AN20</f>
+        <f t="shared" ref="AN40:AO40" si="199">+AN24/AN20</f>
         <v>0.27132656895903795</v>
       </c>
       <c r="AO40" s="5">
-        <f t="shared" si="194"/>
+        <f t="shared" si="199"/>
         <v>0.23028155882901361</v>
       </c>
       <c r="AP40" s="5">
-        <f t="shared" ref="AP40:AS40" si="195">+AP24/AP20</f>
+        <f t="shared" ref="AP40:AS40" si="200">+AP24/AP20</f>
         <v>0.27917102055033088</v>
       </c>
       <c r="AQ40" s="5">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.27517319155791847</v>
       </c>
       <c r="AR40" s="5">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.27285904094697427</v>
       </c>
       <c r="AS40" s="5">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>0.29021606489124974</v>
       </c>
       <c r="AT40" s="5">
-        <f t="shared" ref="AT40:AV40" si="196">+AT24/AT20</f>
+        <f t="shared" ref="AT40:AV40" si="201">+AT24/AT20</f>
         <v>0.28982655966865128</v>
       </c>
       <c r="AU40" s="5">
-        <f t="shared" si="196"/>
+        <f t="shared" si="201"/>
         <v>0.33966508372906773</v>
       </c>
       <c r="AV40" s="5">
-        <f t="shared" si="196"/>
+        <f t="shared" si="201"/>
         <v>0.35200448107545812</v>
       </c>
       <c r="AW40" s="5">
-        <f t="shared" ref="AW40:AX40" si="197">+AW24/AW20</f>
+        <f t="shared" ref="AW40:AX40" si="202">+AW24/AW20</f>
         <v>0.40139843841044165</v>
       </c>
       <c r="AX40" s="5">
-        <f t="shared" si="197"/>
+        <f t="shared" si="202"/>
         <v>0.39377539287083174</v>
       </c>
       <c r="AY40" s="5">
-        <f t="shared" ref="AY40:BB40" si="198">+AY24/AY20</f>
+        <f t="shared" ref="AY40:BB40" si="203">+AY24/AY20</f>
         <v>0.40478895878945764</v>
       </c>
       <c r="AZ40" s="5">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>0.43871239808827661</v>
       </c>
       <c r="BA40" s="5">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>0.37624480720847231</v>
       </c>
       <c r="BB40" s="5">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>0.38588035777783858</v>
       </c>
       <c r="BC40" s="5">
@@ -8276,95 +8265,95 @@
         <v>0.38469860491899105</v>
       </c>
       <c r="BF40" s="5">
-        <f t="shared" ref="BF40:BJ40" si="199">+BF24/BF20</f>
+        <f t="shared" ref="BF40:BJ40" si="204">+BF24/BF20</f>
         <v>0.38343718820007905</v>
       </c>
       <c r="BG40" s="5">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0.37817768109034722</v>
       </c>
       <c r="BH40" s="5">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0.38233247727810865</v>
       </c>
       <c r="BI40" s="5">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0.41779359625167778</v>
       </c>
       <c r="BJ40" s="5">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>0.43309630561360085</v>
       </c>
       <c r="BK40" s="5">
-        <f t="shared" ref="BK40:BL40" si="200">+BK24/BK20</f>
+        <f t="shared" ref="BK40:BL40" si="205">+BK24/BK20</f>
         <v>0.44131129577207562</v>
       </c>
       <c r="BL40" s="5">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>0.46208907131075222</v>
       </c>
       <c r="BM40" s="5">
-        <f t="shared" ref="BM40:CB40" si="201">+BM24/BM20</f>
+        <f t="shared" ref="BM40:CB40" si="206">+BM24/BM20</f>
         <v>0.44524663941128051</v>
       </c>
       <c r="BN40" s="5">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>0.44392753635789467</v>
       </c>
       <c r="BO40" s="5">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>0.44260696299475327</v>
       </c>
       <c r="BP40" s="5">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>0.44128530550212192</v>
       </c>
       <c r="BQ40" s="5">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>0.43996296570630261</v>
       </c>
       <c r="BR40" s="5">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>0.43864036067681755</v>
       </c>
       <c r="BS40" s="5">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>0.43731792225054195</v>
       </c>
       <c r="BT40" s="5">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>0.43599609648196896</v>
       </c>
       <c r="BU40" s="5">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>0.43467534301925298</v>
       </c>
       <c r="BV40" s="5">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>0.4333561344061812</v>
       </c>
       <c r="BW40" s="5">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>0.43203895531074021</v>
       </c>
       <c r="BX40" s="5">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>0.43239438879226205</v>
       </c>
       <c r="BY40" s="5">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>0.43265429566493935</v>
       </c>
       <c r="BZ40" s="5">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>0.43281671897623758</v>
       </c>
       <c r="CA40" s="5">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>0.43288030668604394</v>
       </c>
       <c r="CB40" s="5">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>0.43284433481342677</v>
       </c>
       <c r="CD40" s="4"/>
@@ -8384,84 +8373,84 @@
         <v>0.64396382225717652</v>
       </c>
       <c r="L41" s="5">
-        <f t="shared" ref="L41:U41" si="202">(L19-L22)/L19</f>
+        <f t="shared" ref="L41:U41" si="207">(L19-L22)/L19</f>
         <v>0.65373089601438417</v>
       </c>
       <c r="M41" s="5">
-        <f t="shared" si="202"/>
+        <f t="shared" si="207"/>
         <v>0.67224080267558528</v>
       </c>
       <c r="N41" s="5">
-        <f t="shared" si="202"/>
+        <f t="shared" si="207"/>
         <v>0.66925561894288266</v>
       </c>
       <c r="O41" s="5">
-        <f t="shared" si="202"/>
+        <f t="shared" si="207"/>
         <v>0.6839667533785927</v>
       </c>
       <c r="P41" s="5">
-        <f t="shared" si="202"/>
+        <f t="shared" si="207"/>
         <v>0.70072776758771671</v>
       </c>
       <c r="Q41" s="5">
-        <f t="shared" si="202"/>
+        <f t="shared" si="207"/>
         <v>0.69804414960539862</v>
       </c>
       <c r="R41" s="5">
-        <f t="shared" si="202"/>
+        <f t="shared" si="207"/>
         <v>0.704765552333534</v>
       </c>
       <c r="S41" s="5">
-        <f t="shared" si="202"/>
+        <f t="shared" si="207"/>
         <v>0.72366263578602175</v>
       </c>
       <c r="T41" s="5">
-        <f t="shared" si="202"/>
+        <f t="shared" si="207"/>
         <v>0.72609858231168967</v>
       </c>
       <c r="U41" s="5">
-        <f t="shared" si="202"/>
+        <f t="shared" si="207"/>
         <v>0.71490512140379514</v>
       </c>
       <c r="V41" s="5">
-        <f t="shared" ref="V41:X41" si="203">(V19-V22)/V19</f>
+        <f t="shared" ref="V41:X41" si="208">(V19-V22)/V19</f>
         <v>0.70481550969355844</v>
       </c>
       <c r="W41" s="5">
-        <f t="shared" si="203"/>
+        <f t="shared" si="208"/>
         <v>0.70832129442357705</v>
       </c>
       <c r="X41" s="5">
-        <f t="shared" si="203"/>
+        <f t="shared" si="208"/>
         <v>0.70990577318601422</v>
       </c>
       <c r="Y41" s="5">
-        <f t="shared" ref="Y41:AE41" si="204">(Y19-Y22)/Y19</f>
+        <f t="shared" ref="Y41:AD41" si="209">(Y19-Y22)/Y19</f>
         <v>0.70546363079243857</v>
       </c>
       <c r="Z41" s="5">
-        <f t="shared" si="204"/>
+        <f t="shared" si="209"/>
         <v>0.70937528009321504</v>
       </c>
       <c r="AA41" s="5">
-        <f t="shared" si="204"/>
+        <f t="shared" si="209"/>
         <v>0.728338452221309</v>
       </c>
       <c r="AB41" s="5">
-        <f t="shared" si="204"/>
+        <f t="shared" si="209"/>
         <v>0.74617672937528801</v>
       </c>
       <c r="AC41" s="5">
-        <f t="shared" si="204"/>
+        <f t="shared" si="209"/>
         <v>0.73997439392062114</v>
       </c>
       <c r="AD41" s="5">
-        <f t="shared" si="204"/>
+        <f t="shared" si="209"/>
         <v>0.74030914624379307</v>
       </c>
-      <c r="AE41" s="5">
-        <f t="shared" si="204"/>
-        <v>0.73</v>
+      <c r="AE41" s="5" t="e">
+        <f>(#REF!-AE22)/#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AF41" s="5"/>
       <c r="AG41" s="5"/>
@@ -8469,63 +8458,63 @@
       <c r="AI41" s="5"/>
       <c r="AJ41" s="5"/>
       <c r="AN41" s="5">
-        <f t="shared" ref="AN41:AO41" si="205">(AN19-AN22)/AN19</f>
+        <f t="shared" ref="AN41:AO41" si="210">(AN19-AN22)/AN19</f>
         <v>1</v>
       </c>
       <c r="AO41" s="5">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>1</v>
       </c>
       <c r="AP41" s="5">
-        <f t="shared" ref="AP41:AS41" si="206">(AP19-AP22)/AP19</f>
+        <f t="shared" ref="AP41:AS41" si="211">(AP19-AP22)/AP19</f>
         <v>1</v>
       </c>
       <c r="AQ41" s="5">
-        <f t="shared" si="206"/>
+        <f t="shared" si="211"/>
         <v>1</v>
       </c>
       <c r="AR41" s="5">
-        <f t="shared" si="206"/>
+        <f t="shared" si="211"/>
         <v>1</v>
       </c>
       <c r="AS41" s="5">
-        <f t="shared" si="206"/>
+        <f t="shared" si="211"/>
         <v>1</v>
       </c>
       <c r="AT41" s="5">
-        <f t="shared" ref="AT41:AV41" si="207">(AT19-AT22)/AT19</f>
+        <f t="shared" ref="AT41:AV41" si="212">(AT19-AT22)/AT19</f>
         <v>1</v>
       </c>
       <c r="AU41" s="5">
-        <f t="shared" si="207"/>
+        <f t="shared" si="212"/>
         <v>1</v>
       </c>
       <c r="AV41" s="5">
-        <f t="shared" si="207"/>
+        <f t="shared" si="212"/>
         <v>1</v>
       </c>
       <c r="AW41" s="5">
-        <f t="shared" ref="AW41:AX41" si="208">(AW19-AW22)/AW19</f>
+        <f t="shared" ref="AW41:AX41" si="213">(AW19-AW22)/AW19</f>
         <v>1</v>
       </c>
       <c r="AX41" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="213"/>
         <v>1</v>
       </c>
       <c r="AY41" s="5">
-        <f t="shared" ref="AY41:BB41" si="209">(AY19-AY22)/AY19</f>
+        <f t="shared" ref="AY41:BB41" si="214">(AY19-AY22)/AY19</f>
         <v>1</v>
       </c>
       <c r="AZ41" s="5">
-        <f t="shared" si="209"/>
+        <f t="shared" si="214"/>
         <v>1</v>
       </c>
       <c r="BA41" s="5">
-        <f t="shared" si="209"/>
+        <f t="shared" si="214"/>
         <v>1</v>
       </c>
       <c r="BB41" s="5">
-        <f t="shared" si="209"/>
+        <f t="shared" si="214"/>
         <v>1</v>
       </c>
       <c r="BC41" s="5">
@@ -8541,95 +8530,95 @@
         <v>1</v>
       </c>
       <c r="BF41" s="5">
-        <f t="shared" ref="BF41:BJ41" si="210">(BF19-BF22)/BF19</f>
+        <f t="shared" ref="BF41:BJ41" si="215">(BF19-BF22)/BF19</f>
         <v>0.60772869075173597</v>
       </c>
       <c r="BG41" s="5">
-        <f t="shared" si="210"/>
+        <f t="shared" si="215"/>
         <v>0.63738091637683347</v>
       </c>
       <c r="BH41" s="5">
-        <f t="shared" si="210"/>
+        <f t="shared" si="215"/>
         <v>0.66015101919357233</v>
       </c>
       <c r="BI41" s="5">
-        <f t="shared" si="210"/>
+        <f t="shared" si="215"/>
         <v>0.69725977347460721</v>
       </c>
       <c r="BJ41" s="5">
-        <f t="shared" si="210"/>
+        <f t="shared" si="215"/>
         <v>0.71745446633132381</v>
       </c>
       <c r="BK41" s="5">
-        <f t="shared" ref="BK41:BL41" si="211">(BK19-BK22)/BK19</f>
+        <f t="shared" ref="BK41:BL41" si="216">(BK19-BK22)/BK19</f>
         <v>0.70827464788732397</v>
       </c>
       <c r="BL41" s="5">
-        <f t="shared" si="211"/>
+        <f t="shared" si="216"/>
         <v>0.7388035645582256</v>
       </c>
       <c r="BM41" s="5">
-        <f t="shared" ref="BM41:CB41" si="212">(BM19-BM22)/BM19</f>
+        <f t="shared" ref="BM41:CB41" si="217">(BM19-BM22)/BM19</f>
         <v>0.71</v>
       </c>
       <c r="BN41" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="217"/>
         <v>0.71000000000000008</v>
       </c>
       <c r="BO41" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="217"/>
         <v>0.71</v>
       </c>
       <c r="BP41" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="217"/>
         <v>0.71000000000000008</v>
       </c>
       <c r="BQ41" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="217"/>
         <v>0.71000000000000008</v>
       </c>
       <c r="BR41" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="217"/>
         <v>0.71</v>
       </c>
       <c r="BS41" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="217"/>
         <v>0.71000000000000008</v>
       </c>
       <c r="BT41" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="217"/>
         <v>0.71000000000000008</v>
       </c>
       <c r="BU41" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="217"/>
         <v>0.71</v>
       </c>
       <c r="BV41" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="217"/>
         <v>0.71</v>
       </c>
       <c r="BW41" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="217"/>
         <v>0.71</v>
       </c>
       <c r="BX41" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="217"/>
         <v>0.71000000000000008</v>
       </c>
       <c r="BY41" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="217"/>
         <v>0.71000000000000008</v>
       </c>
       <c r="BZ41" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="217"/>
         <v>0.71000000000000008</v>
       </c>
       <c r="CA41" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="217"/>
         <v>0.71</v>
       </c>
       <c r="CB41" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="217"/>
         <v>0.71000000000000008</v>
       </c>
       <c r="CD41" s="4"/>
@@ -8649,84 +8638,84 @@
         <v>0.3416894215210356</v>
       </c>
       <c r="L42" s="5">
-        <f t="shared" ref="L42:V42" si="213">(L18-L21)/L18</f>
+        <f t="shared" ref="L42:V42" si="218">(L18-L21)/L18</f>
         <v>0.30343600578227509</v>
       </c>
       <c r="M42" s="5">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>0.29736293494379851</v>
       </c>
       <c r="N42" s="5">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>0.2981515085046561</v>
       </c>
       <c r="O42" s="5">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>0.35063441961579467</v>
       </c>
       <c r="P42" s="5">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>0.3609647372838215</v>
       </c>
       <c r="Q42" s="5">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>0.36043347720022517</v>
       </c>
       <c r="R42" s="5">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>0.34253184395310604</v>
       </c>
       <c r="S42" s="5">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>0.38418446983117716</v>
       </c>
       <c r="T42" s="5">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>0.36364692668190091</v>
       </c>
       <c r="U42" s="5">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>0.34519769552521506</v>
       </c>
       <c r="V42" s="5">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>0.34627526142224979</v>
       </c>
       <c r="W42" s="5">
-        <f t="shared" ref="W42:X42" si="214">(W18-W21)/W18</f>
+        <f t="shared" ref="W42:X42" si="219">(W18-W21)/W18</f>
         <v>0.36957920073038136</v>
       </c>
       <c r="X42" s="5">
-        <f t="shared" si="214"/>
+        <f t="shared" si="219"/>
         <v>0.36702782399329087</v>
       </c>
       <c r="Y42" s="5">
-        <f t="shared" ref="Y42:AE42" si="215">(Y18-Y21)/Y18</f>
+        <f t="shared" ref="Y42:AD42" si="220">(Y18-Y21)/Y18</f>
         <v>0.35402086359434837</v>
       </c>
       <c r="Z42" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="220"/>
         <v>0.36612884020004766</v>
       </c>
       <c r="AA42" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="220"/>
         <v>0.39414045491301913</v>
       </c>
       <c r="AB42" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="220"/>
         <v>0.36572675896301171</v>
       </c>
       <c r="AC42" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="220"/>
         <v>0.35346956013254499</v>
       </c>
       <c r="AD42" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="220"/>
         <v>0.36310357643157321</v>
       </c>
-      <c r="AE42" s="5">
-        <f t="shared" si="215"/>
-        <v>0.37</v>
+      <c r="AE42" s="5" t="e">
+        <f>(#REF!-AE21)/#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AF42" s="5"/>
       <c r="AG42" s="5"/>
@@ -8734,63 +8723,63 @@
       <c r="AI42" s="5"/>
       <c r="AJ42" s="5"/>
       <c r="AN42" s="5">
-        <f t="shared" ref="AN42:AO42" si="216">(AN18-AN21)/AN18</f>
+        <f t="shared" ref="AN42:AO42" si="221">(AN18-AN21)/AN18</f>
         <v>1</v>
       </c>
       <c r="AO42" s="5">
-        <f t="shared" si="216"/>
+        <f t="shared" si="221"/>
         <v>1</v>
       </c>
       <c r="AP42" s="5">
-        <f t="shared" ref="AP42:AS42" si="217">(AP18-AP21)/AP18</f>
+        <f t="shared" ref="AP42:AS42" si="222">(AP18-AP21)/AP18</f>
         <v>1</v>
       </c>
       <c r="AQ42" s="5">
-        <f t="shared" si="217"/>
+        <f t="shared" si="222"/>
         <v>1</v>
       </c>
       <c r="AR42" s="5">
-        <f t="shared" si="217"/>
+        <f t="shared" si="222"/>
         <v>1</v>
       </c>
       <c r="AS42" s="5">
-        <f t="shared" si="217"/>
+        <f t="shared" si="222"/>
         <v>1</v>
       </c>
       <c r="AT42" s="5">
-        <f t="shared" ref="AT42:AV42" si="218">(AT18-AT21)/AT18</f>
+        <f t="shared" ref="AT42:AV42" si="223">(AT18-AT21)/AT18</f>
         <v>1</v>
       </c>
       <c r="AU42" s="5">
-        <f t="shared" si="218"/>
+        <f t="shared" si="223"/>
         <v>1</v>
       </c>
       <c r="AV42" s="5">
-        <f t="shared" si="218"/>
+        <f t="shared" si="223"/>
         <v>1</v>
       </c>
       <c r="AW42" s="5">
-        <f t="shared" ref="AW42:AX42" si="219">(AW18-AW21)/AW18</f>
+        <f t="shared" ref="AW42:AX42" si="224">(AW18-AW21)/AW18</f>
         <v>1</v>
       </c>
       <c r="AX42" s="5">
-        <f t="shared" si="219"/>
+        <f t="shared" si="224"/>
         <v>1</v>
       </c>
       <c r="AY42" s="5">
-        <f t="shared" ref="AY42:BB42" si="220">(AY18-AY21)/AY18</f>
+        <f t="shared" ref="AY42:BB42" si="225">(AY18-AY21)/AY18</f>
         <v>1</v>
       </c>
       <c r="AZ42" s="5">
-        <f t="shared" si="220"/>
+        <f t="shared" si="225"/>
         <v>1</v>
       </c>
       <c r="BA42" s="5">
-        <f t="shared" si="220"/>
+        <f t="shared" si="225"/>
         <v>1</v>
       </c>
       <c r="BB42" s="5">
-        <f t="shared" si="220"/>
+        <f t="shared" si="225"/>
         <v>1</v>
       </c>
       <c r="BC42" s="5">
@@ -8806,95 +8795,95 @@
         <v>1</v>
       </c>
       <c r="BF42" s="5">
-        <f t="shared" ref="BF42:BJ42" si="221">(BF18-BF21)/BF18</f>
+        <f t="shared" ref="BF42:BJ42" si="226">(BF18-BF21)/BF18</f>
         <v>0.34396294836770025</v>
       </c>
       <c r="BG42" s="5">
-        <f t="shared" si="221"/>
+        <f t="shared" si="226"/>
         <v>0.32207795851002652</v>
       </c>
       <c r="BH42" s="5">
-        <f t="shared" si="221"/>
+        <f t="shared" si="226"/>
         <v>0.31466339293399231</v>
       </c>
       <c r="BI42" s="5">
-        <f t="shared" si="221"/>
+        <f t="shared" si="226"/>
         <v>0.35349303276483562</v>
       </c>
       <c r="BJ42" s="5">
-        <f t="shared" si="221"/>
+        <f t="shared" si="226"/>
         <v>0.36283479707399452</v>
       </c>
       <c r="BK42" s="5">
-        <f t="shared" ref="BK42:BL42" si="222">(BK18-BK21)/BK18</f>
+        <f t="shared" ref="BK42:BL42" si="227">(BK18-BK21)/BK18</f>
         <v>0.36500662562691849</v>
       </c>
       <c r="BL42" s="5">
-        <f t="shared" si="222"/>
+        <f t="shared" si="227"/>
         <v>0.37184009007481367</v>
       </c>
       <c r="BM42" s="5">
-        <f t="shared" ref="BM42:CB42" si="223">(BM18-BM21)/BM18</f>
+        <f t="shared" ref="BM42:CB42" si="228">(BM18-BM21)/BM18</f>
         <v>0.36000000000000004</v>
       </c>
       <c r="BN42" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="228"/>
         <v>0.36000000000000004</v>
       </c>
       <c r="BO42" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="228"/>
         <v>0.36</v>
       </c>
       <c r="BP42" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="228"/>
         <v>0.36</v>
       </c>
       <c r="BQ42" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="228"/>
         <v>0.36</v>
       </c>
       <c r="BR42" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="228"/>
         <v>0.36</v>
       </c>
       <c r="BS42" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="228"/>
         <v>0.36</v>
       </c>
       <c r="BT42" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="228"/>
         <v>0.35999999999999993</v>
       </c>
       <c r="BU42" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="228"/>
         <v>0.35999999999999993</v>
       </c>
       <c r="BV42" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="228"/>
         <v>0.36000000000000004</v>
       </c>
       <c r="BW42" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="228"/>
         <v>0.36</v>
       </c>
       <c r="BX42" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="228"/>
         <v>0.36</v>
       </c>
       <c r="BY42" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="228"/>
         <v>0.36</v>
       </c>
       <c r="BZ42" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="228"/>
         <v>0.36000000000000004</v>
       </c>
       <c r="CA42" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="228"/>
         <v>0.35999999999999993</v>
       </c>
       <c r="CB42" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="228"/>
         <v>0.36000000000000004</v>
       </c>
     </row>
@@ -8905,39 +8894,39 @@
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5">
-        <f t="shared" ref="E43" si="224">+E28/E20</f>
+        <f t="shared" ref="E43" si="229">+E28/E20</f>
         <v>0.23677837228949591</v>
       </c>
       <c r="K43" s="5">
-        <f t="shared" ref="K43" si="225">+K28/K20</f>
+        <f t="shared" ref="K43" si="230">+K28/K20</f>
         <v>0.2784717759940753</v>
       </c>
       <c r="L43" s="5">
-        <f t="shared" ref="L43:N43" si="226">+L28/L20</f>
+        <f t="shared" ref="L43:N43" si="231">+L28/L20</f>
         <v>0.22041397287054346</v>
       </c>
       <c r="M43" s="5">
-        <f t="shared" si="226"/>
+        <f t="shared" si="231"/>
         <v>0.21933484124989527</v>
       </c>
       <c r="N43" s="5">
-        <f t="shared" si="226"/>
+        <f t="shared" si="231"/>
         <v>0.2283687285542057</v>
       </c>
       <c r="O43" s="5">
-        <f t="shared" ref="O43:Q43" si="227">+O28/O20</f>
+        <f t="shared" ref="O43:Q43" si="232">+O28/O20</f>
         <v>0.30091799100853384</v>
       </c>
       <c r="P43" s="5">
-        <f t="shared" si="227"/>
+        <f t="shared" si="232"/>
         <v>0.30700794784782998</v>
       </c>
       <c r="Q43" s="5">
-        <f t="shared" si="227"/>
+        <f t="shared" si="232"/>
         <v>0.29626445956234498</v>
       </c>
       <c r="R43" s="5">
-        <f t="shared" ref="R43" si="228">+R28/R20</f>
+        <f t="shared" ref="R43" si="233">+R28/R20</f>
         <v>0.28534069097888676</v>
       </c>
       <c r="S43" s="5">
@@ -8953,44 +8942,44 @@
         <v>0.27816150146457891</v>
       </c>
       <c r="V43" s="5">
-        <f t="shared" ref="V43:X43" si="229">+V28/V20</f>
+        <f t="shared" ref="V43:X43" si="234">+V28/V20</f>
         <v>0.27615202005635303</v>
       </c>
       <c r="W43" s="5">
-        <f t="shared" si="229"/>
+        <f t="shared" si="234"/>
         <v>0.30742441572630896</v>
       </c>
       <c r="X43" s="5">
-        <f t="shared" si="229"/>
+        <f t="shared" si="234"/>
         <v>0.29859968788223878</v>
       </c>
       <c r="Y43" s="5">
-        <f t="shared" ref="Y43" si="230">+Y28/Y20</f>
+        <f t="shared" ref="Y43" si="235">+Y28/Y20</f>
         <v>0.28115945572576012</v>
       </c>
       <c r="Z43" s="5">
-        <f t="shared" ref="Z43:AE43" si="231">+Z28/Z20</f>
+        <f t="shared" ref="Z43:AD43" si="236">+Z28/Z20</f>
         <v>0.30133634271156895</v>
       </c>
       <c r="AA43" s="5">
-        <f t="shared" si="231"/>
+        <f t="shared" si="236"/>
         <v>0.33763746602550698</v>
       </c>
       <c r="AB43" s="5">
-        <f t="shared" si="231"/>
+        <f t="shared" si="236"/>
         <v>0.30742785362467356</v>
       </c>
       <c r="AC43" s="5">
-        <f t="shared" si="231"/>
+        <f t="shared" si="236"/>
         <v>0.29555708406682446</v>
       </c>
       <c r="AD43" s="5">
-        <f t="shared" si="231"/>
+        <f t="shared" si="236"/>
         <v>0.31181923522595595</v>
       </c>
-      <c r="AE43" s="5">
-        <f t="shared" si="231"/>
-        <v>0.32281543469110341</v>
+      <c r="AE43" s="5" t="e">
+        <f>+AE28/#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AF43" s="5"/>
       <c r="AG43" s="5"/>
@@ -8998,63 +8987,63 @@
       <c r="AI43" s="5"/>
       <c r="AJ43" s="5"/>
       <c r="AN43" s="5">
-        <f t="shared" ref="AN43:AO43" si="232">+AN28/AN20</f>
+        <f t="shared" ref="AN43:AO43" si="237">+AN28/AN20</f>
         <v>7.7665038206188156E-2</v>
       </c>
       <c r="AO43" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="237"/>
         <v>-6.2092112623531606E-2</v>
       </c>
       <c r="AP43" s="5">
-        <f t="shared" ref="AP43:AS43" si="233">+AP28/AP20</f>
+        <f t="shared" ref="AP43:AS43" si="238">+AP28/AP20</f>
         <v>8.3594566353187051E-3</v>
       </c>
       <c r="AQ43" s="5">
-        <f t="shared" si="233"/>
+        <f t="shared" si="238"/>
         <v>4.0277106492669565E-3</v>
       </c>
       <c r="AR43" s="5">
-        <f t="shared" si="233"/>
+        <f t="shared" si="238"/>
         <v>4.2154849619519263E-2</v>
       </c>
       <c r="AS43" s="5">
-        <f t="shared" si="233"/>
+        <f t="shared" si="238"/>
         <v>0.11844088722991888</v>
       </c>
       <c r="AT43" s="5">
-        <f t="shared" ref="AT43:AV43" si="234">+AT28/AT20</f>
+        <f t="shared" ref="AT43:AV43" si="239">+AT28/AT20</f>
         <v>0.1269997411338338</v>
       </c>
       <c r="AU43" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="239"/>
         <v>0.1836624177289011</v>
       </c>
       <c r="AV43" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="239"/>
         <v>0.22210663892667573</v>
       </c>
       <c r="AW43" s="5">
-        <f t="shared" ref="AW43:AX43" si="235">+AW28/AW20</f>
+        <f t="shared" ref="AW43:AX43" si="240">+AW28/AW20</f>
         <v>0.2736277823097541</v>
       </c>
       <c r="AX43" s="5">
-        <f t="shared" si="235"/>
+        <f t="shared" si="240"/>
         <v>0.28187044844768111</v>
       </c>
       <c r="AY43" s="5">
-        <f t="shared" ref="AY43:BB43" si="236">+AY28/AY20</f>
+        <f t="shared" ref="AY43:BB43" si="241">+AY28/AY20</f>
         <v>0.31215068961376086</v>
       </c>
       <c r="AZ43" s="5">
-        <f t="shared" si="236"/>
+        <f t="shared" si="241"/>
         <v>0.35295959311984054</v>
       </c>
       <c r="BA43" s="5">
-        <f t="shared" si="236"/>
+        <f t="shared" si="241"/>
         <v>0.28669475162366159</v>
       </c>
       <c r="BB43" s="5">
-        <f t="shared" si="236"/>
+        <f t="shared" si="241"/>
         <v>0.28722339232473537</v>
       </c>
       <c r="BC43" s="5">
@@ -9070,95 +9059,95 @@
         <v>0.26760428208729942</v>
       </c>
       <c r="BF43" s="5">
-        <f t="shared" ref="BF43:BJ43" si="237">+BF28/BF20</f>
+        <f t="shared" ref="BF43:BJ43" si="242">+BF28/BF20</f>
         <v>0.26694026619477024</v>
       </c>
       <c r="BG43" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="242"/>
         <v>0.24572017188496928</v>
       </c>
       <c r="BH43" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="242"/>
         <v>0.24147314354406862</v>
       </c>
       <c r="BI43" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="242"/>
         <v>0.29782377527561593</v>
       </c>
       <c r="BJ43" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="242"/>
         <v>0.30288744395528594</v>
       </c>
       <c r="BK43" s="5">
-        <f t="shared" ref="BK43:BL43" si="238">+BK28/BK20</f>
+        <f t="shared" ref="BK43:BL43" si="243">+BK28/BK20</f>
         <v>0.29821412265024722</v>
       </c>
       <c r="BL43" s="5">
-        <f t="shared" si="238"/>
+        <f t="shared" si="243"/>
         <v>0.31512780185916861</v>
       </c>
       <c r="BM43" s="5">
-        <f t="shared" ref="BM43:CB43" si="239">+BM28/BM20</f>
+        <f t="shared" ref="BM43:CB43" si="244">+BM28/BM20</f>
         <v>0.29970319499726367</v>
       </c>
       <c r="BN43" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="244"/>
         <v>0.30063622532124834</v>
       </c>
       <c r="BO43" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="244"/>
         <v>0.30157029562735133</v>
       </c>
       <c r="BP43" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="244"/>
         <v>0.30250513276185842</v>
       </c>
       <c r="BQ43" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="244"/>
         <v>0.30344045250427304</v>
       </c>
       <c r="BR43" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="244"/>
         <v>0.30437595985223725</v>
       </c>
       <c r="BS43" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="244"/>
         <v>0.3053113493581221</v>
       </c>
       <c r="BT43" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="244"/>
         <v>0.30624630551786824</v>
       </c>
       <c r="BU43" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="244"/>
         <v>0.30718050321232337</v>
       </c>
       <c r="BV43" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="244"/>
         <v>0.30811360820097355</v>
       </c>
       <c r="BW43" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="244"/>
         <v>0.30904527766759393</v>
       </c>
       <c r="BX43" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="244"/>
         <v>0.30879387182362422</v>
       </c>
       <c r="BY43" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="244"/>
         <v>0.30861003403096854</v>
       </c>
       <c r="BZ43" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="244"/>
         <v>0.30849514848478304</v>
       </c>
       <c r="CA43" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="244"/>
         <v>0.30845017151249121</v>
       </c>
       <c r="CB43" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="244"/>
         <v>0.30847561520157696</v>
       </c>
     </row>
@@ -9177,84 +9166,84 @@
         <v>0.14206343082027933</v>
       </c>
       <c r="L44" s="5">
-        <f t="shared" ref="L44:U44" si="240">L31/L30</f>
+        <f t="shared" ref="L44:U44" si="245">L31/L30</f>
         <v>0.14358583936048724</v>
       </c>
       <c r="M44" s="5">
-        <f t="shared" si="240"/>
+        <f t="shared" si="245"/>
         <v>0.14341173783968944</v>
       </c>
       <c r="N44" s="5">
-        <f t="shared" si="240"/>
+        <f t="shared" si="245"/>
         <v>0.14952016643178309</v>
       </c>
       <c r="O44" s="5">
-        <f t="shared" si="240"/>
+        <f t="shared" si="245"/>
         <v>0.14366121683194855</v>
       </c>
       <c r="P44" s="5">
-        <f t="shared" si="240"/>
+        <f t="shared" si="245"/>
         <v>0.1564028417407447</v>
       </c>
       <c r="Q44" s="5">
-        <f t="shared" si="240"/>
+        <f t="shared" si="245"/>
         <v>0.10771882309491568</v>
       </c>
       <c r="R44" s="5">
-        <f t="shared" si="240"/>
+        <f t="shared" si="245"/>
         <v>0.11600997935306263</v>
       </c>
       <c r="S44" s="5">
-        <f t="shared" si="240"/>
+        <f t="shared" si="245"/>
         <v>0.16030164157028201</v>
       </c>
       <c r="T44" s="5">
-        <f t="shared" si="240"/>
+        <f t="shared" si="245"/>
         <v>0.17017817445834302</v>
       </c>
       <c r="U44" s="5">
-        <f t="shared" si="240"/>
+        <f t="shared" si="245"/>
         <v>0.15711436746726784</v>
       </c>
       <c r="V44" s="5">
-        <f t="shared" ref="V44:X44" si="241">V31/V30</f>
+        <f t="shared" ref="V44:X44" si="246">V31/V30</f>
         <v>0.15963012531938192</v>
       </c>
       <c r="W44" s="5">
-        <f t="shared" si="241"/>
+        <f t="shared" si="246"/>
         <v>0.15790360160570419</v>
       </c>
       <c r="X44" s="5">
-        <f t="shared" si="241"/>
+        <f t="shared" si="246"/>
         <v>0.14875625396377987</v>
       </c>
       <c r="Y44" s="5">
-        <f t="shared" ref="Y44" si="242">Y31/Y30</f>
+        <f t="shared" ref="Y44" si="247">Y31/Y30</f>
         <v>0.12545638499098227</v>
       </c>
       <c r="Z44" s="5">
-        <f t="shared" ref="Z44:AE44" si="243">Z31/Z30</f>
+        <f t="shared" ref="Z44:AE44" si="248">Z31/Z30</f>
         <v>0.14971479368842136</v>
       </c>
       <c r="AA44" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="248"/>
         <v>0.15889194752374575</v>
       </c>
       <c r="AB44" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="248"/>
         <v>0.1576021099151757</v>
       </c>
       <c r="AC44" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="248"/>
         <v>0.15870400878638111</v>
       </c>
       <c r="AD44" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="248"/>
         <v>0.50216070222822418</v>
       </c>
       <c r="AE44" s="5">
-        <f t="shared" si="243"/>
-        <v>0.16</v>
+        <f t="shared" si="248"/>
+        <v>0.14686267142588766</v>
       </c>
       <c r="AF44" s="5"/>
       <c r="AG44" s="5"/>
@@ -9262,167 +9251,167 @@
       <c r="AI44" s="5"/>
       <c r="AJ44" s="5"/>
       <c r="AN44" s="5">
-        <f t="shared" ref="AN44:AO44" si="244">AN31/AN30</f>
+        <f t="shared" ref="AN44:AO44" si="249">AN31/AN30</f>
         <v>0.37181044957472659</v>
       </c>
       <c r="AO44" s="5">
-        <f t="shared" si="244"/>
+        <f t="shared" si="249"/>
         <v>0</v>
       </c>
       <c r="AP44" s="5">
-        <f t="shared" ref="AP44:AS44" si="245">AP31/AP30</f>
+        <f t="shared" ref="AP44:AS44" si="250">AP31/AP30</f>
         <v>0.1864406779661017</v>
       </c>
       <c r="AQ44" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="250"/>
         <v>0.20338983050847459</v>
       </c>
       <c r="AR44" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="250"/>
         <v>0.26354679802955666</v>
       </c>
       <c r="AS44" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="250"/>
         <v>0.26446280991735538</v>
       </c>
       <c r="AT44" s="5">
-        <f t="shared" ref="AT44:AV44" si="246">AT31/AT30</f>
+        <f t="shared" ref="AT44:AV44" si="251">AT31/AT30</f>
         <v>0.29418026969481903</v>
       </c>
       <c r="AU44" s="5">
-        <f t="shared" si="246"/>
+        <f t="shared" si="251"/>
         <v>0.30191693290734822</v>
       </c>
       <c r="AV44" s="5">
-        <f t="shared" si="246"/>
+        <f t="shared" si="251"/>
         <v>0.3160836034424947</v>
       </c>
       <c r="AW44" s="5">
-        <f t="shared" ref="AW44:AX44" si="247">AW31/AW30</f>
+        <f t="shared" ref="AW44:AX44" si="252">AW31/AW30</f>
         <v>0.31750372948781702</v>
       </c>
       <c r="AX44" s="5">
-        <f t="shared" si="247"/>
+        <f t="shared" si="252"/>
         <v>0.24417475728155341</v>
       </c>
       <c r="AY44" s="5">
-        <f t="shared" ref="AY44:BB44" si="248">AY31/AY30</f>
+        <f t="shared" ref="AY44:BB44" si="253">AY31/AY30</f>
         <v>0.24215757930127174</v>
       </c>
       <c r="AZ44" s="5">
-        <f t="shared" si="248"/>
+        <f t="shared" si="253"/>
         <v>0.25160052364471064</v>
       </c>
       <c r="BA44" s="5">
-        <f t="shared" si="248"/>
+        <f t="shared" si="253"/>
         <v>0.26154919748778788</v>
       </c>
       <c r="BB44" s="5">
-        <f t="shared" si="248"/>
+        <f t="shared" si="253"/>
         <v>0.26126058747639436</v>
       </c>
       <c r="BC44" s="5">
-        <f t="shared" ref="BC44:BD44" si="249">BC31/BC30</f>
+        <f t="shared" ref="BC44:BD44" si="254">BC31/BC30</f>
         <v>0.26368337585327173</v>
       </c>
       <c r="BD44" s="5">
-        <f t="shared" si="249"/>
+        <f t="shared" si="254"/>
         <v>0.25557257381216192</v>
       </c>
       <c r="BE44" s="5">
-        <f t="shared" ref="BE44" si="250">BE31/BE30</f>
+        <f t="shared" ref="BE44" si="255">BE31/BE30</f>
         <v>0.24556476150353415</v>
       </c>
       <c r="BF44" s="5">
-        <f t="shared" ref="BF44:BJ44" si="251">BF31/BF30</f>
+        <f t="shared" ref="BF44:BJ44" si="256">BF31/BF30</f>
         <v>0.18342180705869443</v>
       </c>
       <c r="BG44" s="5">
-        <f t="shared" si="251"/>
+        <f t="shared" si="256"/>
         <v>0.15943836804235059</v>
       </c>
       <c r="BH44" s="5">
-        <f t="shared" si="251"/>
+        <f t="shared" si="256"/>
         <v>0.14428164731484103</v>
       </c>
       <c r="BI44" s="5">
-        <f t="shared" si="251"/>
+        <f t="shared" si="256"/>
         <v>0.13302260844085087</v>
       </c>
       <c r="BJ44" s="5">
-        <f t="shared" si="251"/>
+        <f t="shared" si="256"/>
         <v>0.16204461684424407</v>
       </c>
       <c r="BK44" s="5">
-        <f t="shared" ref="BK44:BL44" si="252">BK31/BK30</f>
+        <f t="shared" ref="BK44:BL44" si="257">BK31/BK30</f>
         <v>0.14719174228036858</v>
       </c>
       <c r="BL44" s="5">
-        <f t="shared" si="252"/>
+        <f t="shared" si="257"/>
         <v>0.24089234381958785</v>
       </c>
       <c r="BM44" s="5">
-        <f t="shared" ref="BM44:CB44" si="253">BM31/BM30</f>
+        <f t="shared" ref="BM44:CB44" si="258">BM31/BM30</f>
         <v>0.24589490202430075</v>
       </c>
       <c r="BN44" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="258"/>
         <v>0.16</v>
       </c>
       <c r="BO44" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="258"/>
         <v>0.16</v>
       </c>
       <c r="BP44" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="258"/>
         <v>0.16</v>
       </c>
       <c r="BQ44" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="258"/>
         <v>0.16</v>
       </c>
       <c r="BR44" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="258"/>
         <v>0.16</v>
       </c>
       <c r="BS44" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="258"/>
         <v>0.16</v>
       </c>
       <c r="BT44" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="258"/>
         <v>0.16</v>
       </c>
       <c r="BU44" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="258"/>
         <v>0.16</v>
       </c>
       <c r="BV44" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="258"/>
         <v>0.16</v>
       </c>
       <c r="BW44" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="258"/>
         <v>0.16</v>
       </c>
       <c r="BX44" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="258"/>
         <v>0.16</v>
       </c>
       <c r="BY44" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="258"/>
         <v>0.16</v>
       </c>
       <c r="BZ44" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="258"/>
         <v>0.16</v>
       </c>
       <c r="CA44" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="258"/>
         <v>0.16</v>
       </c>
       <c r="CB44" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="258"/>
         <v>0.16</v>
       </c>
     </row>
@@ -9909,7 +9898,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="19" t="s">
         <v>37</v>
       </c>
     </row>
